--- a/testing/Balance_frame_Stage5.xlsx
+++ b/testing/Balance_frame_Stage5.xlsx
@@ -417,16 +417,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1826097</v>
+        <v>5025300</v>
       </c>
       <c r="D2">
-        <v>12173980</v>
+        <v>33502000</v>
       </c>
       <c r="E2">
-        <v>2174000</v>
+        <v>23504000</v>
       </c>
       <c r="F2">
-        <v>10347903</v>
+        <v>28478700</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -437,16 +437,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5250853.59</v>
+        <v>9240672.26</v>
       </c>
       <c r="D3">
-        <v>35005688.59</v>
+        <v>48466872.26</v>
       </c>
       <c r="E3">
-        <v>25891811.59</v>
+        <v>27030372.26</v>
       </c>
       <c r="F3">
-        <v>22467055</v>
+        <v>22815000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -457,16 +457,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8112688.77</v>
+        <v>4769772.26</v>
       </c>
       <c r="D4">
-        <v>54118488.77</v>
+        <v>50702872.26</v>
       </c>
       <c r="E4">
-        <v>30957555.17</v>
+        <v>2238000</v>
       </c>
       <c r="F4">
-        <v>28095720</v>
+        <v>6708900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -477,16 +477,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6193014.77</v>
+        <v>5725786.26</v>
       </c>
       <c r="D5">
-        <v>62135114.77</v>
+        <v>79653986.26000001</v>
       </c>
       <c r="E5">
-        <v>8016646</v>
+        <v>28953114</v>
       </c>
       <c r="F5">
-        <v>9936320</v>
+        <v>27997100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -497,16 +497,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>13593803.85</v>
+        <v>7455653.86</v>
       </c>
       <c r="D6">
-        <v>77139103.84999999</v>
+        <v>103777253.86</v>
       </c>
       <c r="E6">
-        <v>20654000</v>
+        <v>46526714</v>
       </c>
       <c r="F6">
-        <v>13253210.92</v>
+        <v>44796846.41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -517,16 +517,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>8214607.85</v>
+        <v>9443557.550000001</v>
       </c>
       <c r="D7">
-        <v>94921207.84999999</v>
+        <v>133750657.55</v>
       </c>
       <c r="E7">
-        <v>17782124</v>
+        <v>59203075</v>
       </c>
       <c r="F7">
-        <v>23161320</v>
+        <v>57215171.31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -537,16 +537,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>10540702.16</v>
+        <v>10258721.83</v>
       </c>
       <c r="D8">
-        <v>129714702.16</v>
+        <v>171939921.83</v>
       </c>
       <c r="E8">
-        <v>47571680</v>
+        <v>77515700</v>
       </c>
       <c r="F8">
-        <v>45245585.7</v>
+        <v>76700535.73</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -557,16 +557,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>11689220.62</v>
+        <v>11181270.3</v>
       </c>
       <c r="D9">
-        <v>131063920.62</v>
+        <v>172862470.3</v>
       </c>
       <c r="E9">
-        <v>25662706</v>
+        <v>70293761</v>
       </c>
       <c r="F9">
-        <v>24514187.54</v>
+        <v>69371212.55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -577,16 +577,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>13402781.41</v>
+        <v>12572516.66</v>
       </c>
       <c r="D10">
-        <v>147600881.41</v>
+        <v>202493716.66</v>
       </c>
       <c r="E10">
-        <v>30712061</v>
+        <v>90697543</v>
       </c>
       <c r="F10">
-        <v>28998500.22</v>
+        <v>89306296.66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -597,16 +597,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>13493156.73</v>
+        <v>14770889.45</v>
       </c>
       <c r="D11">
-        <v>172306556.73</v>
+        <v>233024589.45</v>
       </c>
       <c r="E11">
-        <v>38281988</v>
+        <v>107319694</v>
       </c>
       <c r="F11">
-        <v>38191612.68</v>
+        <v>105121321.22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -617,16 +617,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>13553664.93</v>
+        <v>16103158.21</v>
       </c>
       <c r="D12">
-        <v>180438964.93</v>
+        <v>237443258.21</v>
       </c>
       <c r="E12">
-        <v>45516315</v>
+        <v>89756676</v>
       </c>
       <c r="F12">
-        <v>45455806.81</v>
+        <v>88424407.26000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -637,16 +637,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>13831692.92</v>
+        <v>16870337.97</v>
       </c>
       <c r="D13">
-        <v>207850292.92</v>
+        <v>239470637.97</v>
       </c>
       <c r="E13">
-        <v>72324354</v>
+        <v>78459249</v>
       </c>
       <c r="F13">
-        <v>72046326.03</v>
+        <v>77692069.26000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>15754635.37</v>
+        <v>18753853.64</v>
       </c>
       <c r="D14">
-        <v>221075435.37</v>
+        <v>256388953.64</v>
       </c>
       <c r="E14">
-        <v>82775072</v>
+        <v>87704414</v>
       </c>
       <c r="F14">
-        <v>80852129.56</v>
+        <v>85820898.34</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -677,16 +677,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>17156421.42</v>
+        <v>20768313.7</v>
       </c>
       <c r="D15">
-        <v>245511821.42</v>
+        <v>291618813.7</v>
       </c>
       <c r="E15">
-        <v>87980604</v>
+        <v>104098667</v>
       </c>
       <c r="F15">
-        <v>86578817.97</v>
+        <v>102084206.96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -697,16 +697,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>19085758.86</v>
+        <v>21105616.04</v>
       </c>
       <c r="D16">
-        <v>272528658.86</v>
+        <v>321886016.04</v>
       </c>
       <c r="E16">
-        <v>100982068</v>
+        <v>114224854</v>
       </c>
       <c r="F16">
-        <v>99052730.56999999</v>
+        <v>113887551.68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -717,16 +717,16 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>20911712.39</v>
+        <v>22684177.01</v>
       </c>
       <c r="D17">
-        <v>310172712.39</v>
+        <v>336615277.01</v>
       </c>
       <c r="E17">
-        <v>119334587</v>
+        <v>125587503</v>
       </c>
       <c r="F17">
-        <v>117508633.49</v>
+        <v>124008942.06</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -737,16 +737,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>21380103.56</v>
+        <v>22862963.49</v>
       </c>
       <c r="D18">
-        <v>312596203.56</v>
+        <v>348878263.49</v>
       </c>
       <c r="E18">
-        <v>103503159</v>
+        <v>122064626</v>
       </c>
       <c r="F18">
-        <v>103034767.85</v>
+        <v>121885839.55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -757,16 +757,16 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>23694849.93</v>
+        <v>23740899.89</v>
       </c>
       <c r="D19">
-        <v>335638049.93</v>
+        <v>354800499.89</v>
       </c>
       <c r="E19">
-        <v>121860548</v>
+        <v>126201493</v>
       </c>
       <c r="F19">
-        <v>119545801.66</v>
+        <v>125323556.63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -777,16 +777,16 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>24002298.44</v>
+        <v>24099805.56</v>
       </c>
       <c r="D20">
-        <v>362215098.44</v>
+        <v>359708605.56</v>
       </c>
       <c r="E20">
-        <v>125290114</v>
+        <v>122329549</v>
       </c>
       <c r="F20">
-        <v>124982665.51</v>
+        <v>121970643.36</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -797,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>24308387.11</v>
+        <v>24337579.17</v>
       </c>
       <c r="D21">
-        <v>383389587.11</v>
+        <v>366302079.17</v>
       </c>
       <c r="E21">
-        <v>143395716</v>
+        <v>125334287</v>
       </c>
       <c r="F21">
-        <v>143089627.36</v>
+        <v>125096513.42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>26002090.91</v>
+        <v>25404519.61</v>
       </c>
       <c r="D22">
-        <v>409638290.91</v>
+        <v>401695919.61</v>
       </c>
       <c r="E22">
-        <v>167213867.32</v>
+        <v>160170717</v>
       </c>
       <c r="F22">
-        <v>165520163.55</v>
+        <v>159103776.58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -837,16 +837,16 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>28196246.72</v>
+        <v>27355709.86</v>
       </c>
       <c r="D23">
-        <v>428429946.72</v>
+        <v>435023409.86</v>
       </c>
       <c r="E23">
-        <v>169662566.8</v>
+        <v>183247226.43</v>
       </c>
       <c r="F23">
-        <v>167468411.04</v>
+        <v>181296036.22</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -857,16 +857,16 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>29536692.62</v>
+        <v>27442829.79</v>
       </c>
       <c r="D24">
-        <v>457839792.62</v>
+        <v>449525429.79</v>
       </c>
       <c r="E24">
-        <v>180818455.17</v>
+        <v>177153156.72</v>
       </c>
       <c r="F24">
-        <v>179478009.3</v>
+        <v>177066036.84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -877,16 +877,16 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>30488494.56</v>
+        <v>29458130.99</v>
       </c>
       <c r="D25">
-        <v>463246594.56</v>
+        <v>465257030.99</v>
       </c>
       <c r="E25">
-        <v>169950564.91</v>
+        <v>194731734.22</v>
       </c>
       <c r="F25">
-        <v>168998763.01</v>
+        <v>192716433.08</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -897,16 +897,16 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>31278916.5</v>
+        <v>29844717.39</v>
       </c>
       <c r="D26">
-        <v>491562416.5</v>
+        <v>480813417.39</v>
       </c>
       <c r="E26">
-        <v>187783195.06</v>
+        <v>189232247.58</v>
       </c>
       <c r="F26">
-        <v>186992773.15</v>
+        <v>188845661.22</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -917,16 +917,16 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>31961895.75</v>
+        <v>31471478.16</v>
       </c>
       <c r="D27">
-        <v>513045195.75</v>
+        <v>512388978.16</v>
       </c>
       <c r="E27">
-        <v>202594513.27</v>
+        <v>216412025.64</v>
       </c>
       <c r="F27">
-        <v>201911534.06</v>
+        <v>214785264.91</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -937,16 +937,16 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>32863954.5</v>
+        <v>32762942.97</v>
       </c>
       <c r="D28">
-        <v>541031054.5</v>
+        <v>529882242.97</v>
       </c>
       <c r="E28">
-        <v>225954383.63</v>
+        <v>217819681.95</v>
       </c>
       <c r="F28">
-        <v>225052324.91</v>
+        <v>216528217.18</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -957,16 +957,16 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>33849990.38</v>
+        <v>33556605.16</v>
       </c>
       <c r="D29">
-        <v>568158090.38</v>
+        <v>531101005.16</v>
       </c>
       <c r="E29">
-        <v>240855185</v>
+        <v>204456951</v>
       </c>
       <c r="F29">
-        <v>239869149.17</v>
+        <v>203663288.86</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -977,16 +977,16 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>34520047.55</v>
+        <v>35538541.7</v>
       </c>
       <c r="D30">
-        <v>582412947.55</v>
+        <v>554697941.7</v>
       </c>
       <c r="E30">
-        <v>247260311.67</v>
+        <v>221868179.15</v>
       </c>
       <c r="F30">
-        <v>246590254.57</v>
+        <v>219886242.65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -997,16 +997,16 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>36206480.78</v>
+        <v>37086409.53</v>
       </c>
       <c r="D31">
-        <v>621004380.78</v>
+        <v>587941709.53</v>
       </c>
       <c r="E31">
-        <v>277874101.32</v>
+        <v>235687315.21</v>
       </c>
       <c r="F31">
-        <v>276187668.16</v>
+        <v>234139447.41</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1017,16 +1017,16 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>38072194.19</v>
+        <v>37660762.97</v>
       </c>
       <c r="D32">
-        <v>643716894.1900001</v>
+        <v>592301662.97</v>
       </c>
       <c r="E32">
-        <v>282709764.97</v>
+        <v>225578085.19</v>
       </c>
       <c r="F32">
-        <v>280844051.61</v>
+        <v>225003731.81</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1037,16 +1037,16 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>39313724.6</v>
+        <v>38744690.92</v>
       </c>
       <c r="D33">
-        <v>680463324.6</v>
+        <v>619862190.92</v>
       </c>
       <c r="E33">
-        <v>304286654.48</v>
+        <v>247099200.72</v>
       </c>
       <c r="F33">
-        <v>303045124.13</v>
+        <v>246015272.8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1057,16 +1057,16 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>41122506.64</v>
+        <v>40983174.36</v>
       </c>
       <c r="D34">
-        <v>682323106.64</v>
+        <v>654500374.36</v>
       </c>
       <c r="E34">
-        <v>297012549.86</v>
+        <v>270485770.78</v>
       </c>
       <c r="F34">
-        <v>295203767.87</v>
+        <v>268247287.41</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1077,16 +1077,16 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>41823929.1</v>
+        <v>40916710.48</v>
       </c>
       <c r="D35">
-        <v>710197329.1</v>
+        <v>666963810.48</v>
       </c>
       <c r="E35">
-        <v>302101946.36</v>
+        <v>263550377.4</v>
       </c>
       <c r="F35">
-        <v>301400523.97</v>
+        <v>263616841.33</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1097,16 +1097,16 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>43764700.39</v>
+        <v>41648506.38</v>
       </c>
       <c r="D36">
-        <v>729819600.39</v>
+        <v>669087606.38</v>
       </c>
       <c r="E36">
-        <v>318468441.03</v>
+        <v>266158255.77</v>
       </c>
       <c r="F36">
-        <v>316527669.82</v>
+        <v>265426459.92</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1117,16 +1117,16 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>45506359.47</v>
+        <v>41719106.94</v>
       </c>
       <c r="D37">
-        <v>765258059.47</v>
+        <v>681505306.9400001</v>
       </c>
       <c r="E37">
-        <v>332898270.19</v>
+        <v>269674079.59</v>
       </c>
       <c r="F37">
-        <v>331156611.18</v>
+        <v>269603479.07</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1137,16 +1137,16 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>46613736.75</v>
+        <v>41916910.78</v>
       </c>
       <c r="D38">
-        <v>766273036.75</v>
+        <v>689052110.78</v>
       </c>
       <c r="E38">
-        <v>315767105.89</v>
+        <v>275147969.17</v>
       </c>
       <c r="F38">
-        <v>314659728.69</v>
+        <v>274950165.39</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1157,16 +1157,16 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>47759194.64</v>
+        <v>42213292.21</v>
       </c>
       <c r="D39">
-        <v>777059094.64</v>
+        <v>708476192.21</v>
       </c>
       <c r="E39">
-        <v>315102848.53</v>
+        <v>290835182.07</v>
       </c>
       <c r="F39">
-        <v>313957390.72</v>
+        <v>290538800.72</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1177,16 +1177,16 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>50142820.82</v>
+        <v>42496252.26</v>
       </c>
       <c r="D40">
-        <v>792045520.8200001</v>
+        <v>719604252.26</v>
       </c>
       <c r="E40">
-        <v>318464159.24</v>
+        <v>300350159.85</v>
       </c>
       <c r="F40">
-        <v>316080533.11</v>
+        <v>300067199.87</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1197,16 +1197,16 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>51525615.5</v>
+        <v>44356874.3</v>
       </c>
       <c r="D41">
-        <v>790856615.5</v>
+        <v>731491174.3</v>
       </c>
       <c r="E41">
-        <v>292810366.63</v>
+        <v>310690786.06</v>
       </c>
       <c r="F41">
-        <v>291427572.03</v>
+        <v>308830164.07</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1217,16 +1217,16 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>52923747.27</v>
+        <v>44155678.52</v>
       </c>
       <c r="D42">
-        <v>818883947.27</v>
+        <v>741065478.52</v>
       </c>
       <c r="E42">
-        <v>306807861.8</v>
+        <v>303882006.72</v>
       </c>
       <c r="F42">
-        <v>305409730.11</v>
+        <v>304083202.59</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1237,16 +1237,16 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>52834151.58</v>
+        <v>45929507.18</v>
       </c>
       <c r="D43">
-        <v>824399051.58</v>
+        <v>761393607.1799999</v>
       </c>
       <c r="E43">
-        <v>303278042.79</v>
+        <v>327044929.18</v>
       </c>
       <c r="F43">
-        <v>303367638.54</v>
+        <v>325271100.58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1257,16 +1257,16 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>54703715.5</v>
+        <v>47598995.48</v>
       </c>
       <c r="D44">
-        <v>840437715.5</v>
+        <v>788101495.48</v>
       </c>
       <c r="E44">
-        <v>322423348.41</v>
+        <v>333341544.31</v>
       </c>
       <c r="F44">
-        <v>320553784.55</v>
+        <v>331672056.07</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1277,16 +1277,16 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>55226437.81</v>
+        <v>48810384.85</v>
       </c>
       <c r="D45">
-        <v>846855737.8099999</v>
+        <v>803196484.85</v>
       </c>
       <c r="E45">
-        <v>303789311.06</v>
+        <v>337058959</v>
       </c>
       <c r="F45">
-        <v>303266588.86</v>
+        <v>335847569.72</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1297,16 +1297,16 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>57222671.3</v>
+        <v>49881275.46</v>
       </c>
       <c r="D46">
-        <v>861490771.3</v>
+        <v>808726275.46</v>
       </c>
       <c r="E46">
-        <v>320501500.84</v>
+        <v>325611432.11</v>
       </c>
       <c r="F46">
-        <v>318505267.41</v>
+        <v>324540541.57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1317,16 +1317,16 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>59029088.99</v>
+        <v>51175895.42</v>
       </c>
       <c r="D47">
-        <v>894538088.99</v>
+        <v>835127995.42</v>
       </c>
       <c r="E47">
-        <v>330324302.68</v>
+        <v>344410066.26</v>
       </c>
       <c r="F47">
-        <v>328517885.06</v>
+        <v>343115446.35</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1337,16 +1337,16 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>58992287.59</v>
+        <v>51619972.89</v>
       </c>
       <c r="D48">
-        <v>924811087.59</v>
+        <v>839969672.89</v>
       </c>
       <c r="E48">
-        <v>339825571.37</v>
+        <v>335946051.89</v>
       </c>
       <c r="F48">
-        <v>339862372.86</v>
+        <v>335501974.49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1357,16 +1357,16 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>60263084.96</v>
+        <v>51422213.37</v>
       </c>
       <c r="D49">
-        <v>951735784.96</v>
+        <v>853022213.37</v>
       </c>
       <c r="E49">
-        <v>368062182.81</v>
+        <v>340384572.24</v>
       </c>
       <c r="F49">
-        <v>366791385.55</v>
+        <v>340582331.83</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1377,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>61497491.91</v>
+        <v>51198811.53</v>
       </c>
       <c r="D50">
-        <v>969979391.91</v>
+        <v>865308411.53</v>
       </c>
       <c r="E50">
-        <v>373680481.24</v>
+        <v>356673634.8</v>
       </c>
       <c r="F50">
-        <v>372446074.36</v>
+        <v>356897036.73</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1397,16 +1397,16 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>62330993.47</v>
+        <v>51853726.8</v>
       </c>
       <c r="D51">
-        <v>999001193.47</v>
+        <v>886368626.8</v>
       </c>
       <c r="E51">
-        <v>393329207.4</v>
+        <v>386418389.81</v>
       </c>
       <c r="F51">
-        <v>392495705.92</v>
+        <v>385763474.65</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1417,16 +1417,16 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>64333773.21</v>
+        <v>52707952.94</v>
       </c>
       <c r="D52">
-        <v>1029993473.21</v>
+        <v>899057852.9400001</v>
       </c>
       <c r="E52">
-        <v>411445802.75</v>
+        <v>389361263.9</v>
       </c>
       <c r="F52">
-        <v>409443023.11</v>
+        <v>388507037.83</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1437,16 +1437,16 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>65655052.33</v>
+        <v>52548595.84</v>
       </c>
       <c r="D53">
-        <v>1037587752.33</v>
+        <v>906922595.84</v>
       </c>
       <c r="E53">
-        <v>403648412.59</v>
+        <v>392215770.72</v>
       </c>
       <c r="F53">
-        <v>402327133.53</v>
+        <v>392375127.91</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1457,16 +1457,16 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>65379178.22</v>
+        <v>54308631.11</v>
       </c>
       <c r="D54">
-        <v>1043883778.22</v>
+        <v>926118831.11</v>
       </c>
       <c r="E54">
-        <v>398573559.38</v>
+        <v>407957542.2</v>
       </c>
       <c r="F54">
-        <v>398849433.57</v>
+        <v>406197507.01</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1477,16 +1477,16 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>65777504.33</v>
+        <v>53897219.66</v>
       </c>
       <c r="D55">
-        <v>1073135604.33</v>
+        <v>952257819.66</v>
       </c>
       <c r="E55">
-        <v>424351026.21</v>
+        <v>421094035.57</v>
       </c>
       <c r="F55">
-        <v>423952700.19</v>
+        <v>421505447.12</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1497,16 +1497,16 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>67844112.61</v>
+        <v>54812596.12</v>
       </c>
       <c r="D56">
-        <v>1100670012.61</v>
+        <v>973209596.12</v>
       </c>
       <c r="E56">
-        <v>450847979.79</v>
+        <v>443835214.55</v>
       </c>
       <c r="F56">
-        <v>448781371.62</v>
+        <v>442919838.19</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1517,16 +1517,16 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>68859854.98999999</v>
+        <v>56494343.42</v>
       </c>
       <c r="D57">
-        <v>1130095054.99</v>
+        <v>1004261143.42</v>
       </c>
       <c r="E57">
-        <v>463691066.42</v>
+        <v>465114780.89</v>
       </c>
       <c r="F57">
-        <v>462675324.17</v>
+        <v>463433033.69</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1537,16 +1537,16 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>69719140.75</v>
+        <v>56672926.38</v>
       </c>
       <c r="D58">
-        <v>1145096740.75</v>
+        <v>1021850726.38</v>
       </c>
       <c r="E58">
-        <v>468144665.9</v>
+        <v>464783359.5</v>
       </c>
       <c r="F58">
-        <v>467285380.25</v>
+        <v>464604776.65</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1557,16 +1557,16 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>70027429.05</v>
+        <v>58544189.43</v>
       </c>
       <c r="D59">
-        <v>1165337929.05</v>
+        <v>1030423689.43</v>
       </c>
       <c r="E59">
-        <v>476711629.54</v>
+        <v>466766091.32</v>
       </c>
       <c r="F59">
-        <v>476403341.36</v>
+        <v>464894828.39</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1577,16 +1577,16 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>71137142.39</v>
+        <v>59923909.77</v>
       </c>
       <c r="D60">
-        <v>1174958742.39</v>
+        <v>1051095509.77</v>
       </c>
       <c r="E60">
-        <v>480254741.09</v>
+        <v>473212754.53</v>
       </c>
       <c r="F60">
-        <v>479145027.88</v>
+        <v>471833034.3</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1597,16 +1597,16 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>72581460.06999999</v>
+        <v>59799934.42</v>
       </c>
       <c r="D61">
-        <v>1197448860.07</v>
+        <v>1084886934.42</v>
       </c>
       <c r="E61">
-        <v>495076519.62</v>
+        <v>494809586.46</v>
       </c>
       <c r="F61">
-        <v>493632202.02</v>
+        <v>494933561.89</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1617,16 +1617,16 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>73385637.98999999</v>
+        <v>61242579.95</v>
       </c>
       <c r="D62">
-        <v>1198028637.99</v>
+        <v>1113744979.95</v>
       </c>
       <c r="E62">
-        <v>483169161.54</v>
+        <v>526391588.98</v>
       </c>
       <c r="F62">
-        <v>482364983.72</v>
+        <v>524948943.58</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1637,16 +1637,16 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>74015572.34</v>
+        <v>61078789.81</v>
       </c>
       <c r="D63">
-        <v>1202988772.34</v>
+        <v>1122455789.81</v>
       </c>
       <c r="E63">
-        <v>480075870.49</v>
+        <v>522801934.94</v>
       </c>
       <c r="F63">
-        <v>479445936.24</v>
+        <v>522965725.24</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1657,16 +1657,16 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>74555575.02</v>
+        <v>61028909.1</v>
       </c>
       <c r="D64">
-        <v>1209146475.02</v>
+        <v>1129027509.1</v>
       </c>
       <c r="E64">
-        <v>481149401.57</v>
+        <v>532212659.86</v>
       </c>
       <c r="F64">
-        <v>480609398.99</v>
+        <v>532262540.68</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1677,16 +1677,16 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>76391918.87</v>
+        <v>61245272.37</v>
       </c>
       <c r="D65">
-        <v>1217424218.87</v>
+        <v>1150036472.37</v>
       </c>
       <c r="E65">
-        <v>481166709.91</v>
+        <v>552592668.4400001</v>
       </c>
       <c r="F65">
-        <v>479330366.16</v>
+        <v>552376305.3</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1697,16 +1697,16 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>77082397.61</v>
+        <v>62328406.59</v>
       </c>
       <c r="D66">
-        <v>1239713897.61</v>
+        <v>1171317906.59</v>
       </c>
       <c r="E66">
-        <v>488448645.63</v>
+        <v>568127732.17</v>
       </c>
       <c r="F66">
-        <v>487758167</v>
+        <v>567044598.09</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1717,16 +1717,16 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>77232794.93000001</v>
+        <v>62634239.81</v>
       </c>
       <c r="D67">
-        <v>1265839294.93</v>
+        <v>1173579139.81</v>
       </c>
       <c r="E67">
-        <v>511245919.11</v>
+        <v>562280009.85</v>
       </c>
       <c r="F67">
-        <v>511095521.89</v>
+        <v>561974176.78</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1737,16 +1737,16 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>78771589.23999999</v>
+        <v>62596903.67</v>
       </c>
       <c r="D68">
-        <v>1285711989.24</v>
+        <v>1180907003.67</v>
       </c>
       <c r="E68">
-        <v>520640798.74</v>
+        <v>561328414.01</v>
       </c>
       <c r="F68">
-        <v>519102004.57</v>
+        <v>561365750.26</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1757,16 +1757,16 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>79784949.51000001</v>
+        <v>63360298.57</v>
       </c>
       <c r="D69">
-        <v>1292025249.51</v>
+        <v>1203043998.57</v>
       </c>
       <c r="E69">
-        <v>515433536.08</v>
+        <v>582173059.24</v>
       </c>
       <c r="F69">
-        <v>514420175.93</v>
+        <v>581409664.47</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1777,16 +1777,16 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>80564369.81</v>
+        <v>65374064.18</v>
       </c>
       <c r="D70">
-        <v>1311185869.81</v>
+        <v>1215760664.18</v>
       </c>
       <c r="E70">
-        <v>523730281.83</v>
+        <v>592400475.88</v>
       </c>
       <c r="F70">
-        <v>522950861.66</v>
+        <v>590386710.39</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1797,16 +1797,16 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>80552434.02</v>
+        <v>65530493.76</v>
       </c>
       <c r="D71">
-        <v>1333188534.02</v>
+        <v>1230975993.76</v>
       </c>
       <c r="E71">
-        <v>539330241.0700001</v>
+        <v>587124309.8</v>
       </c>
       <c r="F71">
-        <v>539342176.99</v>
+        <v>586967880.34</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1817,16 +1817,16 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>80643359.05</v>
+        <v>66673195.42</v>
       </c>
       <c r="D72">
-        <v>1323421459.05</v>
+        <v>1258187095.42</v>
       </c>
       <c r="E72">
-        <v>533641460.66</v>
+        <v>612732482.35</v>
       </c>
       <c r="F72">
-        <v>533550535.77</v>
+        <v>611589780.83</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1837,16 +1837,16 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>82457765.75</v>
+        <v>68123164.5</v>
       </c>
       <c r="D73">
-        <v>1348365565.75</v>
+        <v>1273106764.5</v>
       </c>
       <c r="E73">
-        <v>554257325.96</v>
+        <v>625507707.72</v>
       </c>
       <c r="F73">
-        <v>552442919.41</v>
+        <v>624057738.8</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1857,16 +1857,16 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>83486200.67</v>
+        <v>69262316.34999999</v>
       </c>
       <c r="D74">
-        <v>1343288900.67</v>
+        <v>1270483216.35</v>
       </c>
       <c r="E74">
-        <v>534809397</v>
+        <v>602329005.29</v>
       </c>
       <c r="F74">
-        <v>533780962.23</v>
+        <v>601189853.55</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1877,16 +1877,16 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>85212877.19</v>
+        <v>70346539.14</v>
       </c>
       <c r="D75">
-        <v>1355935777.19</v>
+        <v>1283489839.14</v>
       </c>
       <c r="E75">
-        <v>531768429.72</v>
+        <v>599813180.36</v>
       </c>
       <c r="F75">
-        <v>530041753.32</v>
+        <v>598728957.73</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1897,16 +1897,16 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>84640978.48999999</v>
+        <v>72278174.64</v>
       </c>
       <c r="D76">
-        <v>1352078278.49</v>
+        <v>1288933374.64</v>
       </c>
       <c r="E76">
-        <v>521229610.33</v>
+        <v>599456965.89</v>
       </c>
       <c r="F76">
-        <v>521801509.18</v>
+        <v>597525330.55</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1917,16 +1917,16 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>85906247.79000001</v>
+        <v>72937311.19</v>
       </c>
       <c r="D77">
-        <v>1357809147.79</v>
+        <v>1307375711.19</v>
       </c>
       <c r="E77">
-        <v>530596510.75</v>
+        <v>601665974.87</v>
       </c>
       <c r="F77">
-        <v>529331241.61</v>
+        <v>601006838.42</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1937,16 +1937,16 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>87090525.19</v>
+        <v>74446235.63</v>
       </c>
       <c r="D78">
-        <v>1364940325.19</v>
+        <v>1331201935.63</v>
       </c>
       <c r="E78">
-        <v>521955746.95</v>
+        <v>612069653.4400001</v>
       </c>
       <c r="F78">
-        <v>520771469.67</v>
+        <v>610560729.14</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1957,16 +1957,16 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>87599073.98</v>
+        <v>75733061.86</v>
       </c>
       <c r="D79">
-        <v>1357312373.98</v>
+        <v>1366940361.86</v>
       </c>
       <c r="E79">
-        <v>499811195.26</v>
+        <v>626660264.51</v>
       </c>
       <c r="F79">
-        <v>499302646.59</v>
+        <v>625373438.4299999</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1977,16 +1977,16 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>88021241.34999999</v>
+        <v>77685375.47</v>
       </c>
       <c r="D80">
-        <v>1382011141.35</v>
+        <v>1384303275.47</v>
       </c>
       <c r="E80">
-        <v>516674710.3</v>
+        <v>639515959.53</v>
       </c>
       <c r="F80">
-        <v>516252543.03</v>
+        <v>637563646.09</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1997,16 +1997,16 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>89417769.84999999</v>
+        <v>78372998.12</v>
       </c>
       <c r="D81">
-        <v>1377712269.85</v>
+        <v>1388681998.12</v>
       </c>
       <c r="E81">
-        <v>512679981.06</v>
+        <v>626782909.23</v>
       </c>
       <c r="F81">
-        <v>511283452.63</v>
+        <v>626095286.75</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2017,16 +2017,16 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>90452702.76000001</v>
+        <v>79617316.81999999</v>
       </c>
       <c r="D82">
-        <v>1378201002.76</v>
+        <v>1416521416.82</v>
       </c>
       <c r="E82">
-        <v>499049895.88</v>
+        <v>649378489.9400001</v>
       </c>
       <c r="F82">
-        <v>498014963.09</v>
+        <v>648134171.37</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2037,16 +2037,16 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>91262919.09</v>
+        <v>79192530.06</v>
       </c>
       <c r="D83">
-        <v>1383525919.09</v>
+        <v>1440471530.06</v>
       </c>
       <c r="E83">
-        <v>499064978.15</v>
+        <v>658759105.85</v>
       </c>
       <c r="F83">
-        <v>498254761.94</v>
+        <v>659183892.76</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2057,16 +2057,16 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>91777527.38</v>
+        <v>79620835.20999999</v>
       </c>
       <c r="D84">
-        <v>1390254127.38</v>
+        <v>1441867535.21</v>
       </c>
       <c r="E84">
-        <v>495687081.58</v>
+        <v>667076625.53</v>
       </c>
       <c r="F84">
-        <v>495172473.39</v>
+        <v>666648320.55</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2077,16 +2077,16 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>93067436.83</v>
+        <v>79485088.40000001</v>
       </c>
       <c r="D85">
-        <v>1413291536.83</v>
+        <v>1449451588.4</v>
       </c>
       <c r="E85">
-        <v>507872234.6</v>
+        <v>673670964.91</v>
       </c>
       <c r="F85">
-        <v>506582325.22</v>
+        <v>673806711.88</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2097,16 +2097,16 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>93410333.72</v>
+        <v>79310889.39</v>
       </c>
       <c r="D86">
-        <v>1407947933.72</v>
+        <v>1472769989.39</v>
       </c>
       <c r="E86">
-        <v>494230927.89</v>
+        <v>688997411.29</v>
       </c>
       <c r="F86">
-        <v>493888031.15</v>
+        <v>689171610.4400001</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2117,16 +2117,16 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>93278183.05</v>
+        <v>79753974.25</v>
       </c>
       <c r="D87">
-        <v>1397849383.05</v>
+        <v>1478728974.25</v>
       </c>
       <c r="E87">
-        <v>487293773.84</v>
+        <v>708872663.63</v>
       </c>
       <c r="F87">
-        <v>487425924.56</v>
+        <v>708429578.97</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2137,16 +2137,16 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>95470001.37</v>
+        <v>79515909.97</v>
       </c>
       <c r="D88">
-        <v>1418421601.37</v>
+        <v>1481207009.97</v>
       </c>
       <c r="E88">
-        <v>501796482.03</v>
+        <v>694408622.47</v>
       </c>
       <c r="F88">
-        <v>499604663.84</v>
+        <v>694646686.91</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2157,16 +2157,16 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>97008711.88</v>
+        <v>80462061.68000001</v>
       </c>
       <c r="D89">
-        <v>1430987611.88</v>
+        <v>1479719461.68</v>
       </c>
       <c r="E89">
-        <v>493169596.13</v>
+        <v>698740294.74</v>
       </c>
       <c r="F89">
-        <v>491630885.7</v>
+        <v>697794143.21</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2177,16 +2177,16 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>98200563.86</v>
+        <v>81738414.2</v>
       </c>
       <c r="D90">
-        <v>1425227463.86</v>
+        <v>1472042514.2</v>
       </c>
       <c r="E90">
-        <v>469326894.06</v>
+        <v>684072309.74</v>
       </c>
       <c r="F90">
-        <v>468135042.2</v>
+        <v>682795957.41</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2197,16 +2197,16 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>99637642.15000001</v>
+        <v>82360404.06999999</v>
       </c>
       <c r="D91">
-        <v>1420843542.15</v>
+        <v>1459187204.07</v>
       </c>
       <c r="E91">
-        <v>455669364.32</v>
+        <v>663390207.11</v>
       </c>
       <c r="F91">
-        <v>454232286.11</v>
+        <v>662768217.37</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2217,16 +2217,16 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>100508213.05</v>
+        <v>81838154.23</v>
       </c>
       <c r="D92">
-        <v>1423157713.05</v>
+        <v>1482407354.23</v>
       </c>
       <c r="E92">
-        <v>448575663.59</v>
+        <v>676604413.9</v>
       </c>
       <c r="F92">
-        <v>447705092.86</v>
+        <v>677126663.88</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2237,16 +2237,16 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>100892841.37</v>
+        <v>81551933.91</v>
       </c>
       <c r="D93">
-        <v>1432042741.37</v>
+        <v>1482670133.91</v>
       </c>
       <c r="E93">
-        <v>445488191.58</v>
+        <v>683272335.3200001</v>
       </c>
       <c r="F93">
-        <v>445103563.36</v>
+        <v>683558555.8200001</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2257,16 +2257,16 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>101082203.8</v>
+        <v>82181259.84999999</v>
       </c>
       <c r="D94">
-        <v>1428850703.8</v>
+        <v>1502514459.85</v>
       </c>
       <c r="E94">
-        <v>439418365.66</v>
+        <v>702577384.24</v>
       </c>
       <c r="F94">
-        <v>439229003.28</v>
+        <v>701948058.48</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2277,16 +2277,16 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>101168906.42</v>
+        <v>84168780.73</v>
       </c>
       <c r="D95">
-        <v>1432124506.42</v>
+        <v>1515481880.73</v>
       </c>
       <c r="E95">
-        <v>440521171.68</v>
+        <v>711581959.54</v>
       </c>
       <c r="F95">
-        <v>440434469.16</v>
+        <v>709594438.8</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2297,16 +2297,16 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>102970179.05</v>
+        <v>85096502.79000001</v>
       </c>
       <c r="D96">
-        <v>1454957979.05</v>
+        <v>1508991102.79</v>
       </c>
       <c r="E96">
-        <v>460483688.74</v>
+        <v>684253963.85</v>
       </c>
       <c r="F96">
-        <v>458682416.24</v>
+        <v>683326241.97</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2317,16 +2317,16 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>102740394.07</v>
+        <v>85455227.19</v>
       </c>
       <c r="D97">
-        <v>1440071694.07</v>
+        <v>1504539427.18</v>
       </c>
       <c r="E97">
-        <v>433901711.31</v>
+        <v>677531234.38</v>
       </c>
       <c r="F97">
-        <v>434131496.37</v>
+        <v>677172510.1799999</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2337,16 +2337,16 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>103220082.97</v>
+        <v>87192912.86</v>
       </c>
       <c r="D98">
-        <v>1453513282.97</v>
+        <v>1514332812.86</v>
       </c>
       <c r="E98">
-        <v>449233471.91</v>
+        <v>676939120.8099999</v>
       </c>
       <c r="F98">
-        <v>448753783.09</v>
+        <v>675201435.28</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2357,16 +2357,16 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>104769660</v>
+        <v>87631213.36</v>
       </c>
       <c r="D99">
-        <v>1482108660</v>
+        <v>1545273613.36</v>
       </c>
       <c r="E99">
-        <v>466172731.57</v>
+        <v>686238393.77</v>
       </c>
       <c r="F99">
-        <v>464623154.67</v>
+        <v>685800093.41</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2377,16 +2377,16 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>104625361.19</v>
+        <v>88433677.98999999</v>
       </c>
       <c r="D100">
-        <v>1501786061.19</v>
+        <v>1547310577.99</v>
       </c>
       <c r="E100">
-        <v>471383897.4</v>
+        <v>691201602.08</v>
       </c>
       <c r="F100">
-        <v>471528196.31</v>
+        <v>690399137.66</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2397,16 +2397,16 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>105410748.42</v>
+        <v>88786320.09</v>
       </c>
       <c r="D101">
-        <v>1491382848.42</v>
+        <v>1564209920.09</v>
       </c>
       <c r="E101">
-        <v>462409743.75</v>
+        <v>694530824.3200001</v>
       </c>
       <c r="F101">
-        <v>461624356.65</v>
+        <v>694178182.36</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2417,16 +2417,16 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>107016662</v>
+        <v>89364747.81999999</v>
       </c>
       <c r="D102">
-        <v>1496681762</v>
+        <v>1564166747.82</v>
       </c>
       <c r="E102">
-        <v>457097173.76</v>
+        <v>704060091.04</v>
       </c>
       <c r="F102">
-        <v>455491260.28</v>
+        <v>703481663.4400001</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2437,16 +2437,16 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>108506111.01</v>
+        <v>90630884.19</v>
       </c>
       <c r="D103">
-        <v>1522227811.01</v>
+        <v>1592564984.19</v>
       </c>
       <c r="E103">
-        <v>474867730.16</v>
+        <v>719297409.79</v>
       </c>
       <c r="F103">
-        <v>473378281.3</v>
+        <v>718031273.59</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2457,16 +2457,16 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>110162060.92</v>
+        <v>90649057.15000001</v>
       </c>
       <c r="D104">
-        <v>1539159060.92</v>
+        <v>1616684557.15</v>
       </c>
       <c r="E104">
-        <v>469630735.62</v>
+        <v>728920901.11</v>
       </c>
       <c r="F104">
-        <v>467974785.84</v>
+        <v>728902728.3099999</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2477,16 +2477,16 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>109995687.98</v>
+        <v>91249424.67</v>
       </c>
       <c r="D105">
-        <v>1533086487.98</v>
+        <v>1628797524.67</v>
       </c>
       <c r="E105">
-        <v>452096045.78</v>
+        <v>742286062.1799999</v>
       </c>
       <c r="F105">
-        <v>452262418.83</v>
+        <v>741685694.8099999</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2497,16 +2497,16 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>111064741.76</v>
+        <v>92295073.27</v>
       </c>
       <c r="D106">
-        <v>1554456641.76</v>
+        <v>1615538073.27</v>
       </c>
       <c r="E106">
-        <v>476896975.41</v>
+        <v>724462364.6900001</v>
       </c>
       <c r="F106">
-        <v>475827921.7</v>
+        <v>723416716.27</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2517,16 +2517,16 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>110495827.7</v>
+        <v>92782427.40000001</v>
       </c>
       <c r="D107">
-        <v>1545336127.7</v>
+        <v>1629373627.4</v>
       </c>
       <c r="E107">
-        <v>462968561.95</v>
+        <v>731039216.1</v>
       </c>
       <c r="F107">
-        <v>463537476.14</v>
+        <v>730551862.2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2537,16 +2537,16 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>110425647.44</v>
+        <v>95039002.76000001</v>
       </c>
       <c r="D108">
-        <v>1548572147.44</v>
+        <v>1646458002.76</v>
       </c>
       <c r="E108">
-        <v>466112381.36</v>
+        <v>734384520.28</v>
       </c>
       <c r="F108">
-        <v>466182561.71</v>
+        <v>732127945.09</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2557,16 +2557,16 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>110734934.73</v>
+        <v>94655314.87</v>
       </c>
       <c r="D109">
-        <v>1560798134.73</v>
+        <v>1645292314.87</v>
       </c>
       <c r="E109">
-        <v>478997715.63</v>
+        <v>710407018.92</v>
       </c>
       <c r="F109">
-        <v>478688428.43</v>
+        <v>710790706.99</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2577,16 +2577,16 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>110977847.64</v>
+        <v>95420974.01000001</v>
       </c>
       <c r="D110">
-        <v>1568057147.64</v>
+        <v>1655720974.01</v>
       </c>
       <c r="E110">
-        <v>481326120.83</v>
+        <v>727756027.49</v>
       </c>
       <c r="F110">
-        <v>481083208.05</v>
+        <v>726990368.54</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2597,16 +2597,16 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>111544235.65</v>
+        <v>96876488.06999999</v>
       </c>
       <c r="D111">
-        <v>1581105835.65</v>
+        <v>1660308388.07</v>
       </c>
       <c r="E111">
-        <v>492227146.99</v>
+        <v>726785386.24</v>
       </c>
       <c r="F111">
-        <v>491660759.12</v>
+        <v>725329872.3200001</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2617,16 +2617,16 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>112601799.82</v>
+        <v>97779884.31</v>
       </c>
       <c r="D112">
-        <v>1585656699.82</v>
+        <v>1654793284.31</v>
       </c>
       <c r="E112">
-        <v>491582462.86</v>
+        <v>713149903.0700001</v>
       </c>
       <c r="F112">
-        <v>490524898.8</v>
+        <v>712246507.02</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2637,16 +2637,16 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>113187136.45</v>
+        <v>97478497.97</v>
       </c>
       <c r="D113">
-        <v>1583490836.45</v>
+        <v>1649847997.97</v>
       </c>
       <c r="E113">
-        <v>479995903.55</v>
+        <v>696527907.5</v>
       </c>
       <c r="F113">
-        <v>479410567.07</v>
+        <v>696829293.98</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2657,16 +2657,16 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>113734566.62</v>
+        <v>97904735.61</v>
       </c>
       <c r="D114">
-        <v>1596678666.62</v>
+        <v>1645224135.61</v>
       </c>
       <c r="E114">
-        <v>485182759.35</v>
+        <v>693170216.5</v>
       </c>
       <c r="F114">
-        <v>484635329.31</v>
+        <v>692743979.01</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2677,16 +2677,16 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>114341657.11</v>
+        <v>97926725.55</v>
       </c>
       <c r="D115">
-        <v>1613075957.11</v>
+        <v>1656919525.55</v>
       </c>
       <c r="E115">
-        <v>497102650.77</v>
+        <v>703912408.04</v>
       </c>
       <c r="F115">
-        <v>496495560.36</v>
+        <v>703890418.29</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2697,16 +2697,16 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>113180373.43</v>
+        <v>97277009.72</v>
       </c>
       <c r="D116">
-        <v>1603035273.43</v>
+        <v>1668909009.72</v>
       </c>
       <c r="E116">
-        <v>491688160.68</v>
+        <v>710986598.8099999</v>
       </c>
       <c r="F116">
-        <v>492849444.49</v>
+        <v>711636314.78</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2717,16 +2717,16 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>114401852.43</v>
+        <v>98777359.31999999</v>
       </c>
       <c r="D117">
-        <v>1589557952.43</v>
+        <v>1660478259.32</v>
       </c>
       <c r="E117">
-        <v>484332623.1</v>
+        <v>710511258.34</v>
       </c>
       <c r="F117">
-        <v>483111144.24</v>
+        <v>709010908.91</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2737,16 +2737,16 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>113970947.65</v>
+        <v>100667085.91</v>
       </c>
       <c r="D118">
-        <v>1603204947.65</v>
+        <v>1679047985.91</v>
       </c>
       <c r="E118">
-        <v>485255308.78</v>
+        <v>709617965.51</v>
       </c>
       <c r="F118">
-        <v>485686213.64</v>
+        <v>707728239.0599999</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2757,16 +2757,16 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>113201337.32</v>
+        <v>101890958.54</v>
       </c>
       <c r="D119">
-        <v>1605554737.32</v>
+        <v>1694765858.54</v>
       </c>
       <c r="E119">
-        <v>493012511.21</v>
+        <v>703554754.92</v>
       </c>
       <c r="F119">
-        <v>493782121.64</v>
+        <v>702330882.46</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2777,16 +2777,16 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>112309041.3</v>
+        <v>103333764.1</v>
       </c>
       <c r="D120">
-        <v>1595844241.3</v>
+        <v>1694549664.1</v>
       </c>
       <c r="E120">
-        <v>492498457.84</v>
+        <v>695870401.26</v>
       </c>
       <c r="F120">
-        <v>493390753.94</v>
+        <v>694427595.89</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2797,16 +2797,16 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>111506143.79</v>
+        <v>103969454.22</v>
       </c>
       <c r="D121">
-        <v>1616210943.79</v>
+        <v>1704704854.22</v>
       </c>
       <c r="E121">
-        <v>514474075.64</v>
+        <v>693519378.28</v>
       </c>
       <c r="F121">
-        <v>515276973.23</v>
+        <v>692883688.27</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2817,16 +2817,16 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>112062417.81</v>
+        <v>104751317.25</v>
       </c>
       <c r="D122">
-        <v>1646037117.81</v>
+        <v>1703426717.25</v>
       </c>
       <c r="E122">
-        <v>553184821.96</v>
+        <v>695312504.4400001</v>
       </c>
       <c r="F122">
-        <v>552628548</v>
+        <v>694530641.58</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2837,16 +2837,16 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>113056036.49</v>
+        <v>103919184.32</v>
       </c>
       <c r="D123">
-        <v>1661780736.49</v>
+        <v>1687666384.32</v>
       </c>
       <c r="E123">
-        <v>565849170.46</v>
+        <v>666261557.53</v>
       </c>
       <c r="F123">
-        <v>564855551.96</v>
+        <v>667093690.59</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2857,16 +2857,16 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>114056708.41</v>
+        <v>103682768.24</v>
       </c>
       <c r="D124">
-        <v>1668186508.41</v>
+        <v>1683880568.24</v>
       </c>
       <c r="E124">
-        <v>562687241.39</v>
+        <v>668031135.39</v>
       </c>
       <c r="F124">
-        <v>561686569.61</v>
+        <v>668267551.62</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2877,16 +2877,16 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>114582329.39</v>
+        <v>103512592.83</v>
       </c>
       <c r="D125">
-        <v>1686778429.39</v>
+        <v>1704495692.83</v>
       </c>
       <c r="E125">
-        <v>569122147.8</v>
+        <v>697430699.78</v>
       </c>
       <c r="F125">
-        <v>568596526.9299999</v>
+        <v>697600875.3200001</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2897,16 +2897,16 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>114362023.67</v>
+        <v>103343689.97</v>
       </c>
       <c r="D126">
-        <v>1692143723.67</v>
+        <v>1701658689.97</v>
       </c>
       <c r="E126">
-        <v>576155917.34</v>
+        <v>687217159.6900001</v>
       </c>
       <c r="F126">
-        <v>576376223.1799999</v>
+        <v>687386062.7</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2917,16 +2917,16 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>114641084.74</v>
+        <v>104254904.69</v>
       </c>
       <c r="D127">
-        <v>1697989084.74</v>
+        <v>1687730204.69</v>
       </c>
       <c r="E127">
-        <v>589223845.87</v>
+        <v>681477893.59</v>
       </c>
       <c r="F127">
-        <v>588944785</v>
+        <v>680566679.05</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2937,16 +2937,16 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>113340103.32</v>
+        <v>105159005.75</v>
       </c>
       <c r="D128">
-        <v>1710716903.32</v>
+        <v>1678003305.75</v>
       </c>
       <c r="E128">
-        <v>596820655.3</v>
+        <v>656451249.61</v>
       </c>
       <c r="F128">
-        <v>598121636.88</v>
+        <v>655547148.6900001</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2957,16 +2957,16 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>112599001.52</v>
+        <v>106228945.36</v>
       </c>
       <c r="D129">
-        <v>1713087201.52</v>
+        <v>1668748645.36</v>
       </c>
       <c r="E129">
-        <v>605022845.35</v>
+        <v>637198614.84</v>
       </c>
       <c r="F129">
-        <v>605763947.34</v>
+        <v>636128675.37</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2977,16 +2977,16 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>114047723.21</v>
+        <v>105874391.66</v>
       </c>
       <c r="D130">
-        <v>1736435923.21</v>
+        <v>1654966591.66</v>
       </c>
       <c r="E130">
-        <v>633492904.6</v>
+        <v>615807931.76</v>
       </c>
       <c r="F130">
-        <v>632044183.0599999</v>
+        <v>616162485.62</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2997,16 +2997,16 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>114903000.37</v>
+        <v>106113663.43</v>
       </c>
       <c r="D131">
-        <v>1729841400.37</v>
+        <v>1668928263.43</v>
       </c>
       <c r="E131">
-        <v>619968974.63</v>
+        <v>639180475.15</v>
       </c>
       <c r="F131">
-        <v>619113697.63</v>
+        <v>638941203.53</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3017,16 +3017,16 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>114951429.84</v>
+        <v>105516972.79</v>
       </c>
       <c r="D132">
-        <v>1743522629.84</v>
+        <v>1656383572.79</v>
       </c>
       <c r="E132">
-        <v>621102684.0700001</v>
+        <v>620426802.85</v>
       </c>
       <c r="F132">
-        <v>621054254.78</v>
+        <v>621023493.64</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3037,16 +3037,16 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>113905086.72</v>
+        <v>105712924.67</v>
       </c>
       <c r="D133">
-        <v>1753226286.72</v>
+        <v>1655591324.67</v>
       </c>
       <c r="E133">
-        <v>641220504</v>
+        <v>630113510.29</v>
       </c>
       <c r="F133">
-        <v>642266847.21</v>
+        <v>629917558.52</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3057,16 +3057,16 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>114542851.75</v>
+        <v>107128419.37</v>
       </c>
       <c r="D134">
-        <v>1765791751.75</v>
+        <v>1675280919.37</v>
       </c>
       <c r="E134">
-        <v>657178280.37</v>
+        <v>645239110.35</v>
       </c>
       <c r="F134">
-        <v>656540515.47</v>
+        <v>643823615.8099999</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3077,16 +3077,16 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>114460086.09</v>
+        <v>106960540.44</v>
       </c>
       <c r="D135">
-        <v>1778627586.09</v>
+        <v>1670986940.44</v>
       </c>
       <c r="E135">
-        <v>657054247.29</v>
+        <v>631972481.58</v>
       </c>
       <c r="F135">
-        <v>657137013.13</v>
+        <v>632140360.71</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3097,16 +3097,16 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>115381969.29</v>
+        <v>107950965.45</v>
       </c>
       <c r="D136">
-        <v>1794029569.29</v>
+        <v>1664262365.45</v>
       </c>
       <c r="E136">
-        <v>683011211.72</v>
+        <v>619980510.24</v>
       </c>
       <c r="F136">
-        <v>682089328.67</v>
+        <v>618990085.37</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3117,16 +3117,16 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>115887588.65</v>
+        <v>108674637.26</v>
       </c>
       <c r="D137">
-        <v>1793287988.65</v>
+        <v>1651234337.26</v>
       </c>
       <c r="E137">
-        <v>668923666.84</v>
+        <v>605826886.22</v>
       </c>
       <c r="F137">
-        <v>668418047.67</v>
+        <v>605103214.55</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3137,16 +3137,16 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>117539483.11</v>
+        <v>109097090.81</v>
       </c>
       <c r="D138">
-        <v>1792556083.11</v>
+        <v>1661335790.81</v>
       </c>
       <c r="E138">
-        <v>665383782.79</v>
+        <v>604067380.55</v>
       </c>
       <c r="F138">
-        <v>663731888.5</v>
+        <v>603644927.14</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3157,16 +3157,16 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>117570848.65</v>
+        <v>109430898.37</v>
       </c>
       <c r="D139">
-        <v>1784718548.65</v>
+        <v>1676559498.37</v>
       </c>
       <c r="E139">
-        <v>637825989.4400001</v>
+        <v>605850759.98</v>
       </c>
       <c r="F139">
-        <v>637794624.05</v>
+        <v>605516952.53</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3177,16 +3177,16 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>117085038.46</v>
+        <v>108906806.57</v>
       </c>
       <c r="D140">
-        <v>1775745138.46</v>
+        <v>1664078106.57</v>
       </c>
       <c r="E140">
-        <v>629535861.67</v>
+        <v>598212803.09</v>
       </c>
       <c r="F140">
-        <v>630021672.0599999</v>
+        <v>598736895.04</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3197,16 +3197,16 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>118007688.91</v>
+        <v>109216625.99</v>
       </c>
       <c r="D141">
-        <v>1760478388.91</v>
+        <v>1682424425.99</v>
       </c>
       <c r="E141">
-        <v>618094542.9</v>
+        <v>617690609.05</v>
       </c>
       <c r="F141">
-        <v>617171892.59</v>
+        <v>617380789.77</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3217,16 +3217,16 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>116735751.68</v>
+        <v>110266840.43</v>
       </c>
       <c r="D142">
-        <v>1765042951.68</v>
+        <v>1682540140.43</v>
       </c>
       <c r="E142">
-        <v>616652882.75</v>
+        <v>622647829</v>
       </c>
       <c r="F142">
-        <v>617924820.13</v>
+        <v>621597614.7</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3237,16 +3237,16 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>116999724.3</v>
+        <v>111751277.1</v>
       </c>
       <c r="D143">
-        <v>1763440624.3</v>
+        <v>1684180277.1</v>
       </c>
       <c r="E143">
-        <v>632235166.77</v>
+        <v>606042800.84</v>
       </c>
       <c r="F143">
-        <v>631971194.3200001</v>
+        <v>604558364.3200001</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3257,16 +3257,16 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>116131831.48</v>
+        <v>112611158.03</v>
       </c>
       <c r="D144">
-        <v>1774968831.48</v>
+        <v>1673351358.03</v>
       </c>
       <c r="E144">
-        <v>639304510.54</v>
+        <v>581394537.38</v>
       </c>
       <c r="F144">
-        <v>640172403.58</v>
+        <v>580534656.61</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3277,16 +3277,16 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>116500561.64</v>
+        <v>112656765.59</v>
       </c>
       <c r="D145">
-        <v>1785664661.64</v>
+        <v>1653336465.59</v>
       </c>
       <c r="E145">
-        <v>654179286.92</v>
+        <v>567047446.62</v>
       </c>
       <c r="F145">
-        <v>653810556.9299999</v>
+        <v>567001839.1799999</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3297,16 +3297,16 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>115441834.27</v>
+        <v>112818157.01</v>
       </c>
       <c r="D146">
-        <v>1790950434.27</v>
+        <v>1667852157.01</v>
       </c>
       <c r="E146">
-        <v>658461382.86</v>
+        <v>567246928.96</v>
       </c>
       <c r="F146">
-        <v>659520110.4</v>
+        <v>567085537.67</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3317,16 +3317,16 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>115234632.24</v>
+        <v>113693433.07</v>
       </c>
       <c r="D147">
-        <v>1780310332.24</v>
+        <v>1663076433.07</v>
       </c>
       <c r="E147">
-        <v>654293873.8200001</v>
+        <v>568101415.5700001</v>
       </c>
       <c r="F147">
-        <v>654501075.98</v>
+        <v>567226139.65</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3337,16 +3337,16 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>114522618.24</v>
+        <v>114597738.79</v>
       </c>
       <c r="D148">
-        <v>1771982918.24</v>
+        <v>1679978238.79</v>
       </c>
       <c r="E148">
-        <v>649313097.95</v>
+        <v>572057206.4400001</v>
       </c>
       <c r="F148">
-        <v>650025112.09</v>
+        <v>571152900.88</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3357,16 +3357,16 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>115061726</v>
+        <v>114550137.55</v>
       </c>
       <c r="D149">
-        <v>1782672626</v>
+        <v>1675777637.55</v>
       </c>
       <c r="E149">
-        <v>665608683.29</v>
+        <v>557801950.05</v>
       </c>
       <c r="F149">
-        <v>665069575.66</v>
+        <v>557849551.42</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3377,16 +3377,16 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>114148291.29</v>
+        <v>114477707.51</v>
       </c>
       <c r="D150">
-        <v>1783017091.29</v>
+        <v>1667951107.51</v>
       </c>
       <c r="E150">
-        <v>664359113.71</v>
+        <v>546281535.89</v>
       </c>
       <c r="F150">
-        <v>665272548.5599999</v>
+        <v>546353966.05</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3397,16 +3397,16 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>115415258.38</v>
+        <v>114424060.4</v>
       </c>
       <c r="D151">
-        <v>1787081158.38</v>
+        <v>1648274760.4</v>
       </c>
       <c r="E151">
-        <v>672578959.1799999</v>
+        <v>539037349.17</v>
       </c>
       <c r="F151">
-        <v>671311992.23</v>
+        <v>539090996.39</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3417,16 +3417,16 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>114894256.95</v>
+        <v>114761361.67</v>
       </c>
       <c r="D152">
-        <v>1800900456.95</v>
+        <v>1638183361.67</v>
       </c>
       <c r="E152">
-        <v>680416433.92</v>
+        <v>524461537.63</v>
       </c>
       <c r="F152">
-        <v>680937435.52</v>
+        <v>524124236.5</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3437,16 +3437,16 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>115300844.77</v>
+        <v>114357387.9</v>
       </c>
       <c r="D153">
-        <v>1793138444.77</v>
+        <v>1629130187.9</v>
       </c>
       <c r="E153">
-        <v>675733732.45</v>
+        <v>513339765.44</v>
       </c>
       <c r="F153">
-        <v>675327144.79</v>
+        <v>513743739.32</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3457,16 +3457,16 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>114173117.41</v>
+        <v>114357730.9</v>
       </c>
       <c r="D154">
-        <v>1805890417.41</v>
+        <v>1620494230.9</v>
       </c>
       <c r="E154">
-        <v>683257061.6900001</v>
+        <v>507531252.56</v>
       </c>
       <c r="F154">
-        <v>684384789.16</v>
+        <v>507530909.61</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3477,16 +3477,16 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>115350107.79</v>
+        <v>114000545.22</v>
       </c>
       <c r="D155">
-        <v>1807328907.79</v>
+        <v>1616414445.22</v>
       </c>
       <c r="E155">
-        <v>697302987.5</v>
+        <v>513924333.27</v>
       </c>
       <c r="F155">
-        <v>696125997.28</v>
+        <v>514281519.09</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3497,16 +3497,16 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>114724430.42</v>
+        <v>114514164.54</v>
       </c>
       <c r="D156">
-        <v>1810849330.42</v>
+        <v>1622942164.54</v>
       </c>
       <c r="E156">
-        <v>688164445.3200001</v>
+        <v>512078310.75</v>
       </c>
       <c r="F156">
-        <v>688790122.8200001</v>
+        <v>511564691.56</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3517,16 +3517,16 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>114984324.83</v>
+        <v>113137814.49</v>
       </c>
       <c r="D157">
-        <v>1810515924.83</v>
+        <v>1607356414.49</v>
       </c>
       <c r="E157">
-        <v>702404271.74</v>
+        <v>495176124.07</v>
       </c>
       <c r="F157">
-        <v>702144377.46</v>
+        <v>496552474.24</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3537,16 +3537,16 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>115120567.32</v>
+        <v>114631494.66</v>
       </c>
       <c r="D158">
-        <v>1824230367.32</v>
+        <v>1621343594.66</v>
       </c>
       <c r="E158">
-        <v>704776643.66</v>
+        <v>521142253.14</v>
       </c>
       <c r="F158">
-        <v>704640401.36</v>
+        <v>519648573.11</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3557,16 +3557,16 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>114745213.34</v>
+        <v>114732526.59</v>
       </c>
       <c r="D159">
-        <v>1823802113.34</v>
+        <v>1614554926.59</v>
       </c>
       <c r="E159">
-        <v>699060924.28</v>
+        <v>495806697.67</v>
       </c>
       <c r="F159">
-        <v>699436278.42</v>
+        <v>495705665.91</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3577,16 +3577,16 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <v>114134820.04</v>
+        <v>114034775.13</v>
       </c>
       <c r="D160">
-        <v>1834716920.04</v>
+        <v>1610951375.13</v>
       </c>
       <c r="E160">
-        <v>723553589.27</v>
+        <v>491750521.07</v>
       </c>
       <c r="F160">
-        <v>724163982.75</v>
+        <v>492448272.56</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3597,16 +3597,16 @@
         <v>160</v>
       </c>
       <c r="C161">
-        <v>113548658.66</v>
+        <v>113545822.21</v>
       </c>
       <c r="D161">
-        <v>1837216258.66</v>
+        <v>1610704722.21</v>
       </c>
       <c r="E161">
-        <v>726203419.74</v>
+        <v>507359011.08</v>
       </c>
       <c r="F161">
-        <v>726789581.29</v>
+        <v>507847964.11</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3617,16 +3617,16 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <v>113227498.94</v>
+        <v>112739926.8</v>
       </c>
       <c r="D162">
-        <v>1828082398.94</v>
+        <v>1596818126.8</v>
       </c>
       <c r="E162">
-        <v>722193736.34</v>
+        <v>491188278.59</v>
       </c>
       <c r="F162">
-        <v>722514896.25</v>
+        <v>491994174.11</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3637,16 +3637,16 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <v>113521560.74</v>
+        <v>112090038.72</v>
       </c>
       <c r="D163">
-        <v>1835090760.74</v>
+        <v>1589286338.72</v>
       </c>
       <c r="E163">
-        <v>734938058.4</v>
+        <v>492129927.88</v>
       </c>
       <c r="F163">
-        <v>734643996.77</v>
+        <v>492779816.05</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3657,16 +3657,16 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <v>113033810.19</v>
+        <v>112098873.59</v>
       </c>
       <c r="D164">
-        <v>1845992410.19</v>
+        <v>1592905373.59</v>
       </c>
       <c r="E164">
-        <v>742529902.25</v>
+        <v>507798430.55</v>
       </c>
       <c r="F164">
-        <v>743017652.95</v>
+        <v>507789595.84</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3677,16 +3677,16 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <v>113656151.31</v>
+        <v>112027096.23</v>
       </c>
       <c r="D165">
-        <v>1829205951.31</v>
+        <v>1581802996.23</v>
       </c>
       <c r="E165">
-        <v>732364265.37</v>
+        <v>495162797.99</v>
       </c>
       <c r="F165">
-        <v>731741924.45</v>
+        <v>495234575.47</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3697,16 +3697,16 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <v>112344684.27</v>
+        <v>112393594.51</v>
       </c>
       <c r="D166">
-        <v>1830558284.27</v>
+        <v>1598236194.51</v>
       </c>
       <c r="E166">
-        <v>731524626.35</v>
+        <v>505627472.12</v>
       </c>
       <c r="F166">
-        <v>732836093.58</v>
+        <v>505260973.97</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3717,16 +3717,16 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <v>111219347.94</v>
+        <v>111683347.08</v>
       </c>
       <c r="D167">
-        <v>1827370647.94</v>
+        <v>1605228747.08</v>
       </c>
       <c r="E167">
-        <v>741439593.61</v>
+        <v>518650332.23</v>
       </c>
       <c r="F167">
-        <v>742564930.17</v>
+        <v>519360579.79</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3737,16 +3737,16 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <v>111461277.33</v>
+        <v>111488380.11</v>
       </c>
       <c r="D168">
-        <v>1833671977.33</v>
+        <v>1609420480.11</v>
       </c>
       <c r="E168">
-        <v>753682597.63</v>
+        <v>523500873.28</v>
       </c>
       <c r="F168">
-        <v>753440668.4299999</v>
+        <v>523695840.38</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3757,16 +3757,16 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <v>110556151.33</v>
+        <v>113006273.21</v>
       </c>
       <c r="D169">
-        <v>1838120651.33</v>
+        <v>1625469573.21</v>
       </c>
       <c r="E169">
-        <v>757577855.9</v>
+        <v>537587220.2</v>
       </c>
       <c r="F169">
-        <v>758482982.09</v>
+        <v>536069327.22</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3777,16 +3777,16 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <v>112129195.49</v>
+        <v>114264506.83</v>
       </c>
       <c r="D170">
-        <v>1853989495.49</v>
+        <v>1630933406.83</v>
       </c>
       <c r="E170">
-        <v>781762458.6900001</v>
+        <v>530054724.87</v>
       </c>
       <c r="F170">
-        <v>780189414.6900001</v>
+        <v>528796491.4</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3797,16 +3797,16 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <v>112178258.33</v>
+        <v>114471176.4</v>
       </c>
       <c r="D171">
-        <v>1843978558.33</v>
+        <v>1632292776.4</v>
       </c>
       <c r="E171">
-        <v>758315047.42</v>
+        <v>519237174.22</v>
       </c>
       <c r="F171">
-        <v>758265984.77</v>
+        <v>519030504.76</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3817,16 +3817,16 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <v>112140519.91</v>
+        <v>114727025.43</v>
       </c>
       <c r="D172">
-        <v>1824054619.91</v>
+        <v>1640396325.43</v>
       </c>
       <c r="E172">
-        <v>739623202.1900001</v>
+        <v>526942916.25</v>
       </c>
       <c r="F172">
-        <v>739660940.77</v>
+        <v>526687067.39</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3837,16 +3837,16 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <v>111628657.94</v>
+        <v>115602481.75</v>
       </c>
       <c r="D173">
-        <v>1805937857.94</v>
+        <v>1652571681.75</v>
       </c>
       <c r="E173">
-        <v>721200452.66</v>
+        <v>537898301.8200001</v>
       </c>
       <c r="F173">
-        <v>721712314.8</v>
+        <v>537022845.64</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3857,16 +3857,16 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <v>112067264.76</v>
+        <v>116255933.99</v>
       </c>
       <c r="D174">
-        <v>1816616164.76</v>
+        <v>1637030333.99</v>
       </c>
       <c r="E174">
-        <v>730598421.98</v>
+        <v>511168578.72</v>
       </c>
       <c r="F174">
-        <v>730159815.4</v>
+        <v>510515126.54</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3877,16 +3877,16 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>113486380.01</v>
+        <v>117431171.2</v>
       </c>
       <c r="D175">
-        <v>1825646080.01</v>
+        <v>1647018271.2</v>
       </c>
       <c r="E175">
-        <v>738409275.73</v>
+        <v>509251850.38</v>
       </c>
       <c r="F175">
-        <v>736990160.65</v>
+        <v>508076613.3</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3897,16 +3897,16 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <v>113294524.2</v>
+        <v>116747668.47</v>
       </c>
       <c r="D176">
-        <v>1833152624.2</v>
+        <v>1641637668.47</v>
       </c>
       <c r="E176">
-        <v>727709585.65</v>
+        <v>492528566.34</v>
       </c>
       <c r="F176">
-        <v>727901441.5599999</v>
+        <v>493212069.22</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3917,16 +3917,16 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <v>112126100</v>
+        <v>116618468.15</v>
       </c>
       <c r="D177">
-        <v>1819328400</v>
+        <v>1656640168.15</v>
       </c>
       <c r="E177">
-        <v>717274906.8099999</v>
+        <v>518198176.22</v>
       </c>
       <c r="F177">
-        <v>718443331.14</v>
+        <v>518327376.64</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3937,16 +3937,16 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <v>111848342.64</v>
+        <v>118153188.68</v>
       </c>
       <c r="D178">
-        <v>1803514842.64</v>
+        <v>1643798988.68</v>
       </c>
       <c r="E178">
-        <v>716870507.29</v>
+        <v>504551164.85</v>
       </c>
       <c r="F178">
-        <v>717148264.8</v>
+        <v>503016444.4</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3957,16 +3957,16 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <v>112783704.39</v>
+        <v>118449985.69</v>
       </c>
       <c r="D179">
-        <v>1789417804.39</v>
+        <v>1652343485.69</v>
       </c>
       <c r="E179">
-        <v>707513318.14</v>
+        <v>495662990.67</v>
       </c>
       <c r="F179">
-        <v>706577956.58</v>
+        <v>495366193.72</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3977,16 +3977,16 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <v>113615258.25</v>
+        <v>118201032.89</v>
       </c>
       <c r="D180">
-        <v>1796506758.25</v>
+        <v>1679202832.89</v>
       </c>
       <c r="E180">
-        <v>696916114.17</v>
+        <v>520972859.44</v>
       </c>
       <c r="F180">
-        <v>696084560.46</v>
+        <v>521221812.34</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3997,16 +3997,16 @@
         <v>180</v>
       </c>
       <c r="C181">
-        <v>113533271.3</v>
+        <v>117200096.95</v>
       </c>
       <c r="D181">
-        <v>1814425071.3</v>
+        <v>1671734896.95</v>
       </c>
       <c r="E181">
-        <v>708305391.58</v>
+        <v>529155039.13</v>
       </c>
       <c r="F181">
-        <v>708387378.71</v>
+        <v>530155975.16</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4017,16 +4017,16 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <v>113116204.21</v>
+        <v>117333998.35</v>
       </c>
       <c r="D182">
-        <v>1795570504.21</v>
+        <v>1689821498.35</v>
       </c>
       <c r="E182">
-        <v>700649512.99</v>
+        <v>545989675.8099999</v>
       </c>
       <c r="F182">
-        <v>701066580.3099999</v>
+        <v>545855774.52</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4037,16 +4037,16 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <v>113546524.23</v>
+        <v>116954652.84</v>
       </c>
       <c r="D183">
-        <v>1803796524.23</v>
+        <v>1680777952.84</v>
       </c>
       <c r="E183">
-        <v>716316885.36</v>
+        <v>537017673.78</v>
       </c>
       <c r="F183">
-        <v>715886565.55</v>
+        <v>537397019.48</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4057,16 +4057,16 @@
         <v>183</v>
       </c>
       <c r="C184">
-        <v>113961031.86</v>
+        <v>117284094.97</v>
       </c>
       <c r="D184">
-        <v>1821400731.86</v>
+        <v>1672138294.97</v>
       </c>
       <c r="E184">
-        <v>720852011.76</v>
+        <v>538960303.22</v>
       </c>
       <c r="F184">
-        <v>720437504.24</v>
+        <v>538630861.28</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4077,16 +4077,16 @@
         <v>184</v>
       </c>
       <c r="C185">
-        <v>113635063.4</v>
+        <v>116885230.73</v>
       </c>
       <c r="D185">
-        <v>1823912763.4</v>
+        <v>1655706830.73</v>
       </c>
       <c r="E185">
-        <v>721722954.48</v>
+        <v>517436731.18</v>
       </c>
       <c r="F185">
-        <v>722048923.13</v>
+        <v>517835595.55</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4097,16 +4097,16 @@
         <v>185</v>
       </c>
       <c r="C186">
-        <v>113233104.03</v>
+        <v>117316837.42</v>
       </c>
       <c r="D186">
-        <v>1811040704.03</v>
+        <v>1643049537.42</v>
       </c>
       <c r="E186">
-        <v>714193225.02</v>
+        <v>509252992.53</v>
       </c>
       <c r="F186">
-        <v>714595184.55</v>
+        <v>508821385.93</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4117,16 +4117,16 @@
         <v>186</v>
       </c>
       <c r="C187">
-        <v>113977385.8</v>
+        <v>117574052.52</v>
       </c>
       <c r="D187">
-        <v>1806148785.8</v>
+        <v>1657228752.52</v>
       </c>
       <c r="E187">
-        <v>704628423.8</v>
+        <v>516474052.05</v>
       </c>
       <c r="F187">
-        <v>703884142.22</v>
+        <v>516216837.08</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4137,16 +4137,16 @@
         <v>187</v>
       </c>
       <c r="C188">
-        <v>114221245.08</v>
+        <v>117955604.41</v>
       </c>
       <c r="D188">
-        <v>1801692445.08</v>
+        <v>1663157404.41</v>
       </c>
       <c r="E188">
-        <v>698123497.75</v>
+        <v>525354469.02</v>
       </c>
       <c r="F188">
-        <v>697879638.62</v>
+        <v>524972917.25</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4157,16 +4157,16 @@
         <v>188</v>
       </c>
       <c r="C189">
-        <v>113609389.03</v>
+        <v>117338824.18</v>
       </c>
       <c r="D189">
-        <v>1790873489.03</v>
+        <v>1674820724.18</v>
       </c>
       <c r="E189">
-        <v>676868987.11</v>
+        <v>527490670.15</v>
       </c>
       <c r="F189">
-        <v>677480843.37</v>
+        <v>528107450.54</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4177,16 +4177,16 @@
         <v>189</v>
       </c>
       <c r="C190">
-        <v>114342532.24</v>
+        <v>118092637.96</v>
       </c>
       <c r="D190">
-        <v>1777215232.24</v>
+        <v>1663641337.96</v>
       </c>
       <c r="E190">
-        <v>670950414.74</v>
+        <v>516340362.08</v>
       </c>
       <c r="F190">
-        <v>670217271.66</v>
+        <v>515586548.41</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4197,16 +4197,16 @@
         <v>190</v>
       </c>
       <c r="C191">
-        <v>114551406.12</v>
+        <v>118948967.22</v>
       </c>
       <c r="D191">
-        <v>1773862106.12</v>
+        <v>1673338867.22</v>
       </c>
       <c r="E191">
-        <v>663227949.48</v>
+        <v>523221493.08</v>
       </c>
       <c r="F191">
-        <v>663019075.79</v>
+        <v>522365163.94</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4217,16 +4217,16 @@
         <v>191</v>
       </c>
       <c r="C192">
-        <v>114349333.88</v>
+        <v>119974971.76</v>
       </c>
       <c r="D192">
-        <v>1759650433.88</v>
+        <v>1680369471.76</v>
       </c>
       <c r="E192">
-        <v>644750800.4299999</v>
+        <v>522264975.93</v>
       </c>
       <c r="F192">
-        <v>644952872.83</v>
+        <v>521238971.5</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4237,16 +4237,16 @@
         <v>192</v>
       </c>
       <c r="C193">
-        <v>113402646.44</v>
+        <v>119045919.2</v>
       </c>
       <c r="D193">
-        <v>1741168246.44</v>
+        <v>1674427719.2</v>
       </c>
       <c r="E193">
-        <v>632380739.13</v>
+        <v>501915201.03</v>
       </c>
       <c r="F193">
-        <v>633327426.75</v>
+        <v>502844253.74</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4257,16 +4257,16 @@
         <v>193</v>
       </c>
       <c r="C194">
-        <v>112910709.68</v>
+        <v>119763784.25</v>
       </c>
       <c r="D194">
-        <v>1739427809.68</v>
+        <v>1664538984.25</v>
       </c>
       <c r="E194">
-        <v>633968007.46</v>
+        <v>503636310.18</v>
       </c>
       <c r="F194">
-        <v>634459944.4299999</v>
+        <v>502918445.25</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4277,16 +4277,16 @@
         <v>194</v>
       </c>
       <c r="C195">
-        <v>113138682.66</v>
+        <v>120436531.37</v>
       </c>
       <c r="D195">
-        <v>1753504982.66</v>
+        <v>1650460931.37</v>
       </c>
       <c r="E195">
-        <v>658007587.9</v>
+        <v>486439501.59</v>
       </c>
       <c r="F195">
-        <v>657779615.09</v>
+        <v>485766754.57</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4297,16 +4297,16 @@
         <v>195</v>
       </c>
       <c r="C196">
-        <v>113298233.33</v>
+        <v>120919175.74</v>
       </c>
       <c r="D196">
-        <v>1743193233.33</v>
+        <v>1653414375.74</v>
       </c>
       <c r="E196">
-        <v>647556493.67</v>
+        <v>481015016.35</v>
       </c>
       <c r="F196">
-        <v>647396943.1900001</v>
+        <v>480532372.12</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4317,16 +4317,16 @@
         <v>196</v>
       </c>
       <c r="C197">
-        <v>114294591.95</v>
+        <v>121673373.01</v>
       </c>
       <c r="D197">
-        <v>1762372791.95</v>
+        <v>1659757273.01</v>
       </c>
       <c r="E197">
-        <v>657541638.59</v>
+        <v>478121158.05</v>
       </c>
       <c r="F197">
-        <v>656545280.13</v>
+        <v>477366960.9</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4337,16 +4337,16 @@
         <v>197</v>
       </c>
       <c r="C198">
-        <v>114195150.53</v>
+        <v>121069212.82</v>
       </c>
       <c r="D198">
-        <v>1756704850.53</v>
+        <v>1666757212.82</v>
       </c>
       <c r="E198">
-        <v>653159100.04</v>
+        <v>490681650.34</v>
       </c>
       <c r="F198">
-        <v>653258541.5599999</v>
+        <v>491285810.63</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4357,16 +4357,16 @@
         <v>198</v>
       </c>
       <c r="C199">
-        <v>115135843</v>
+        <v>119720846.04</v>
       </c>
       <c r="D199">
-        <v>1750352243</v>
+        <v>1660369446.04</v>
       </c>
       <c r="E199">
-        <v>636581695.42</v>
+        <v>482157148.27</v>
       </c>
       <c r="F199">
-        <v>635641003.08</v>
+        <v>483505515.12</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4377,16 +4377,16 @@
         <v>199</v>
       </c>
       <c r="C200">
-        <v>116476279.86</v>
+        <v>118791014.37</v>
       </c>
       <c r="D200">
-        <v>1739921179.86</v>
+        <v>1656041914.37</v>
       </c>
       <c r="E200">
-        <v>622416430.26</v>
+        <v>490643287.96</v>
       </c>
       <c r="F200">
-        <v>621075993.59</v>
+        <v>491573119.74</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4397,16 +4397,16 @@
         <v>200</v>
       </c>
       <c r="C201">
-        <v>115541902.66</v>
+        <v>118309713.15</v>
       </c>
       <c r="D201">
-        <v>1748722102.66</v>
+        <v>1666274913.15</v>
       </c>
       <c r="E201">
-        <v>614567224.86</v>
+        <v>508511280.11</v>
       </c>
       <c r="F201">
-        <v>615501602.16</v>
+        <v>508992581.47</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4417,16 +4417,16 @@
         <v>201</v>
       </c>
       <c r="C202">
-        <v>116243023</v>
+        <v>117330621.33</v>
       </c>
       <c r="D202">
-        <v>1745052323</v>
+        <v>1651137321.33</v>
       </c>
       <c r="E202">
-        <v>617193748.26</v>
+        <v>507437875.23</v>
       </c>
       <c r="F202">
-        <v>616492628.0599999</v>
+        <v>508416967.14</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4437,16 +4437,16 @@
         <v>202</v>
       </c>
       <c r="C203">
-        <v>115599771.72</v>
+        <v>116457213.53</v>
       </c>
       <c r="D203">
-        <v>1733338271.72</v>
+        <v>1665348413.53</v>
       </c>
       <c r="E203">
-        <v>609533470.64</v>
+        <v>519172130.48</v>
       </c>
       <c r="F203">
-        <v>610176722.01</v>
+        <v>520045538.39</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4457,16 +4457,16 @@
         <v>203</v>
       </c>
       <c r="C204">
-        <v>115594455.68</v>
+        <v>115570739.55</v>
       </c>
       <c r="D204">
-        <v>1725326555.68</v>
+        <v>1678849739.55</v>
       </c>
       <c r="E204">
-        <v>607067224.8</v>
+        <v>550662937.3099999</v>
       </c>
       <c r="F204">
-        <v>607072540.98</v>
+        <v>551549411.39</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4477,16 +4477,16 @@
         <v>204</v>
       </c>
       <c r="C205">
-        <v>116245643.53</v>
+        <v>115224058.25</v>
       </c>
       <c r="D205">
-        <v>1707438143.53</v>
+        <v>1670329058.25</v>
       </c>
       <c r="E205">
-        <v>589151220.6799999</v>
+        <v>547678010.9</v>
       </c>
       <c r="F205">
-        <v>588500032.96</v>
+        <v>548024692.36</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4497,16 +4497,16 @@
         <v>205</v>
       </c>
       <c r="C206">
-        <v>116919099.07</v>
+        <v>115712060.75</v>
       </c>
       <c r="D206">
-        <v>1721768099.07</v>
+        <v>1675982560.75</v>
       </c>
       <c r="E206">
-        <v>594579173.23</v>
+        <v>555503882.53</v>
       </c>
       <c r="F206">
-        <v>593905717.83</v>
+        <v>555015880.16</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4517,16 +4517,16 @@
         <v>206</v>
       </c>
       <c r="C207">
-        <v>116987289.52</v>
+        <v>114958344.23</v>
       </c>
       <c r="D207">
-        <v>1725894189.52</v>
+        <v>1679489844.23</v>
       </c>
       <c r="E207">
-        <v>586077480.48</v>
+        <v>554352499.88</v>
       </c>
       <c r="F207">
-        <v>586009290.15</v>
+        <v>555106216.5700001</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4537,16 +4537,16 @@
         <v>207</v>
       </c>
       <c r="C208">
-        <v>117377727.93</v>
+        <v>115220435.92</v>
       </c>
       <c r="D208">
-        <v>1712944127.93</v>
+        <v>1675928535.92</v>
       </c>
       <c r="E208">
-        <v>575808704.48</v>
+        <v>569730303.22</v>
       </c>
       <c r="F208">
-        <v>575418266.26</v>
+        <v>569468211.64</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4557,16 +4557,16 @@
         <v>208</v>
       </c>
       <c r="C209">
-        <v>118239518.12</v>
+        <v>115909794.6</v>
       </c>
       <c r="D209">
-        <v>1729047518.12</v>
+        <v>1665262094.6</v>
       </c>
       <c r="E209">
-        <v>586659576.75</v>
+        <v>543058717.71</v>
       </c>
       <c r="F209">
-        <v>585797786.7</v>
+        <v>542369359.12</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4577,16 +4577,16 @@
         <v>209</v>
       </c>
       <c r="C210">
-        <v>118233776.59</v>
+        <v>115070542.66</v>
       </c>
       <c r="D210">
-        <v>1733391176.59</v>
+        <v>1672219442.66</v>
       </c>
       <c r="E210">
-        <v>583120462.46</v>
+        <v>545222605.21</v>
       </c>
       <c r="F210">
-        <v>583126204.12</v>
+        <v>546061857.3200001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4597,16 +4597,16 @@
         <v>210</v>
       </c>
       <c r="C211">
-        <v>118600809.87</v>
+        <v>114407355.04</v>
       </c>
       <c r="D211">
-        <v>1733549309.87</v>
+        <v>1678791555.04</v>
       </c>
       <c r="E211">
-        <v>583516864.27</v>
+        <v>559185604.38</v>
       </c>
       <c r="F211">
-        <v>583149831.1900001</v>
+        <v>559848792.15</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4617,16 +4617,16 @@
         <v>211</v>
       </c>
       <c r="C212">
-        <v>117403607.53</v>
+        <v>115020073.48</v>
       </c>
       <c r="D212">
-        <v>1747451907.53</v>
+        <v>1656881573.48</v>
       </c>
       <c r="E212">
-        <v>591583831.76</v>
+        <v>547475407.52</v>
       </c>
       <c r="F212">
-        <v>592781034.25</v>
+        <v>546862689.1900001</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4637,16 +4637,16 @@
         <v>212</v>
       </c>
       <c r="C213">
-        <v>118044812.4</v>
+        <v>116607455.05</v>
       </c>
       <c r="D213">
-        <v>1758084512.4</v>
+        <v>1668808455.05</v>
       </c>
       <c r="E213">
-        <v>618629218</v>
+        <v>544430630.51</v>
       </c>
       <c r="F213">
-        <v>617988013.29</v>
+        <v>542843249.05</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4657,16 +4657,16 @@
         <v>213</v>
       </c>
       <c r="C214">
-        <v>117627344.03</v>
+        <v>117515443.02</v>
       </c>
       <c r="D214">
-        <v>1758781844.03</v>
+        <v>1660547443.02</v>
       </c>
       <c r="E214">
-        <v>617083869.55</v>
+        <v>520669742.16</v>
       </c>
       <c r="F214">
-        <v>617501338.01</v>
+        <v>519761754.32</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4677,16 +4677,16 @@
         <v>214</v>
       </c>
       <c r="C215">
-        <v>117175855.06</v>
+        <v>116854000.19</v>
       </c>
       <c r="D215">
-        <v>1764051555.06</v>
+        <v>1649663300.19</v>
       </c>
       <c r="E215">
-        <v>625087126.71</v>
+        <v>502054673.52</v>
       </c>
       <c r="F215">
-        <v>625538615.92</v>
+        <v>502716116.47</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4697,16 +4697,16 @@
         <v>215</v>
       </c>
       <c r="C216">
-        <v>116029220.28</v>
+        <v>117594102.46</v>
       </c>
       <c r="D216">
-        <v>1742875820.28</v>
+        <v>1661479302.46</v>
       </c>
       <c r="E216">
-        <v>607557585.2</v>
+        <v>522314879.51</v>
       </c>
       <c r="F216">
-        <v>608704220.16</v>
+        <v>521574777.36</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4717,16 +4717,16 @@
         <v>216</v>
       </c>
       <c r="C217">
-        <v>116006348.92</v>
+        <v>116718969.05</v>
       </c>
       <c r="D217">
-        <v>1744040848.92</v>
+        <v>1652518869.05</v>
       </c>
       <c r="E217">
-        <v>611469564.58</v>
+        <v>509993604.26</v>
       </c>
       <c r="F217">
-        <v>611492436.0700001</v>
+        <v>510868737.84</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4737,16 +4737,16 @@
         <v>217</v>
       </c>
       <c r="C218">
-        <v>115082562.16</v>
+        <v>117376298</v>
       </c>
       <c r="D218">
-        <v>1734797862.16</v>
+        <v>1650377198</v>
       </c>
       <c r="E218">
-        <v>608874245.39</v>
+        <v>521391354.45</v>
       </c>
       <c r="F218">
-        <v>609798032.3099999</v>
+        <v>520734025.6</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4757,16 +4757,16 @@
         <v>218</v>
       </c>
       <c r="C219">
-        <v>114647209.39</v>
+        <v>117860294.74</v>
       </c>
       <c r="D219">
-        <v>1742770209.39</v>
+        <v>1634027094.74</v>
       </c>
       <c r="E219">
-        <v>622628869.61</v>
+        <v>490643233.78</v>
       </c>
       <c r="F219">
-        <v>623064222.5599999</v>
+        <v>490159237.19</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4777,16 +4777,16 @@
         <v>219</v>
       </c>
       <c r="C220">
-        <v>113250790.48</v>
+        <v>118658500.6</v>
       </c>
       <c r="D220">
-        <v>1740763690.48</v>
+        <v>1652274500.6</v>
       </c>
       <c r="E220">
-        <v>633456777.98</v>
+        <v>502044178.05</v>
       </c>
       <c r="F220">
-        <v>634853197.04</v>
+        <v>501245972.32</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4797,16 +4797,16 @@
         <v>220</v>
       </c>
       <c r="C221">
-        <v>113839201.04</v>
+        <v>118666645.94</v>
       </c>
       <c r="D221">
-        <v>1749299601.04</v>
+        <v>1653553945.94</v>
       </c>
       <c r="E221">
-        <v>642053055.66</v>
+        <v>497172113.29</v>
       </c>
       <c r="F221">
-        <v>641464645.1900001</v>
+        <v>497163968.1</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4817,16 +4817,16 @@
         <v>221</v>
       </c>
       <c r="C222">
-        <v>113088308.22</v>
+        <v>119673013.25</v>
       </c>
       <c r="D222">
-        <v>1758139208.22</v>
+        <v>1653073213.25</v>
       </c>
       <c r="E222">
-        <v>642813536.28</v>
+        <v>502654377.55</v>
       </c>
       <c r="F222">
-        <v>643564429.24</v>
+        <v>501648010.36</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4837,16 +4837,16 @@
         <v>222</v>
       </c>
       <c r="C223">
-        <v>112550246.92</v>
+        <v>120814353.55</v>
       </c>
       <c r="D223">
-        <v>1753591046.92</v>
+        <v>1665587553.55</v>
       </c>
       <c r="E223">
-        <v>659065558.65</v>
+        <v>497075018.1</v>
       </c>
       <c r="F223">
-        <v>659603620.08</v>
+        <v>495933677.91</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4857,16 +4857,16 @@
         <v>223</v>
       </c>
       <c r="C224">
-        <v>111965108.81</v>
+        <v>120462378.72</v>
       </c>
       <c r="D224">
-        <v>1766855708.81</v>
+        <v>1681719978.72</v>
       </c>
       <c r="E224">
-        <v>668825658.77</v>
+        <v>505633797.55</v>
       </c>
       <c r="F224">
-        <v>669410797.05</v>
+        <v>505985772.55</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4877,16 +4877,16 @@
         <v>224</v>
       </c>
       <c r="C225">
-        <v>112501150.79</v>
+        <v>120927652.54</v>
       </c>
       <c r="D225">
-        <v>1760397750.79</v>
+        <v>1674221052.54</v>
       </c>
       <c r="E225">
-        <v>676170099.74</v>
+        <v>495634107.07</v>
       </c>
       <c r="F225">
-        <v>675634057.87</v>
+        <v>495168833.33</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4897,16 +4897,16 @@
         <v>225</v>
       </c>
       <c r="C226">
-        <v>113211800.34</v>
+        <v>120203380.42</v>
       </c>
       <c r="D226">
-        <v>1739611500.34</v>
+        <v>1655158680.42</v>
       </c>
       <c r="E226">
-        <v>651589135.48</v>
+        <v>486913420.42</v>
       </c>
       <c r="F226">
-        <v>650878486.04</v>
+        <v>487637692.7</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4917,16 +4917,16 @@
         <v>226</v>
       </c>
       <c r="C227">
-        <v>112406726.66</v>
+        <v>120285121.19</v>
       </c>
       <c r="D227">
-        <v>1744704326.66</v>
+        <v>1648076521.19</v>
       </c>
       <c r="E227">
-        <v>635165674.1</v>
+        <v>482475486.79</v>
       </c>
       <c r="F227">
-        <v>635970747.91</v>
+        <v>482393746.12</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4937,16 +4937,16 @@
         <v>227</v>
       </c>
       <c r="C228">
-        <v>112158252.47</v>
+        <v>119461742.7</v>
       </c>
       <c r="D228">
-        <v>1745135752.47</v>
+        <v>1644824542.7</v>
       </c>
       <c r="E228">
-        <v>657462043.4400001</v>
+        <v>487833215.78</v>
       </c>
       <c r="F228">
-        <v>657710517.77</v>
+        <v>488656594.35</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4957,16 +4957,16 @@
         <v>228</v>
       </c>
       <c r="C229">
-        <v>112482267.35</v>
+        <v>118791555.85</v>
       </c>
       <c r="D229">
-        <v>1763123667.35</v>
+        <v>1645111255.85</v>
       </c>
       <c r="E229">
-        <v>674866690.84</v>
+        <v>487584660.41</v>
       </c>
       <c r="F229">
-        <v>674542676.12</v>
+        <v>488254847.4</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4977,16 +4977,16 @@
         <v>229</v>
       </c>
       <c r="C230">
-        <v>111750118.07</v>
+        <v>117979323.58</v>
       </c>
       <c r="D230">
-        <v>1746244018.07</v>
+        <v>1656065023.58</v>
       </c>
       <c r="E230">
-        <v>656238373.04</v>
+        <v>492665833.41</v>
       </c>
       <c r="F230">
-        <v>656970522.55</v>
+        <v>493478065.81</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4997,16 +4997,16 @@
         <v>230</v>
       </c>
       <c r="C231">
-        <v>112291501.61</v>
+        <v>118972195.8</v>
       </c>
       <c r="D231">
-        <v>1770283801.61</v>
+        <v>1671843195.8</v>
       </c>
       <c r="E231">
-        <v>682974256.55</v>
+        <v>522906322.58</v>
       </c>
       <c r="F231">
-        <v>682432873.13</v>
+        <v>521913450.47</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5017,16 +5017,16 @@
         <v>231</v>
       </c>
       <c r="C232">
-        <v>111716428.48</v>
+        <v>120228257.02</v>
       </c>
       <c r="D232">
-        <v>1777793428.48</v>
+        <v>1672219557.02</v>
       </c>
       <c r="E232">
-        <v>686851311.15</v>
+        <v>509539431.06</v>
       </c>
       <c r="F232">
-        <v>687426384.4299999</v>
+        <v>508283369.93</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5037,16 +5037,16 @@
         <v>232</v>
       </c>
       <c r="C233">
-        <v>111052147.97</v>
+        <v>120775241.99</v>
       </c>
       <c r="D233">
-        <v>1766655247.97</v>
+        <v>1681206341.99</v>
       </c>
       <c r="E233">
-        <v>688880004.5</v>
+        <v>508186522.19</v>
       </c>
       <c r="F233">
-        <v>689544285.2</v>
+        <v>507639537.42</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5057,16 +5057,16 @@
         <v>233</v>
       </c>
       <c r="C234">
-        <v>110988090.27</v>
+        <v>121149568.31</v>
       </c>
       <c r="D234">
-        <v>1764563090.27</v>
+        <v>1670081368.31</v>
       </c>
       <c r="E234">
-        <v>693117184.04</v>
+        <v>492408106.25</v>
       </c>
       <c r="F234">
-        <v>693181241.84</v>
+        <v>492033780.09</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5077,16 +5077,16 @@
         <v>234</v>
       </c>
       <c r="C235">
-        <v>110265784.02</v>
+        <v>120940074.13</v>
       </c>
       <c r="D235">
-        <v>1776533984.02</v>
+        <v>1661613974.13</v>
       </c>
       <c r="E235">
-        <v>706324564.17</v>
+        <v>481723302.12</v>
       </c>
       <c r="F235">
-        <v>707046870.53</v>
+        <v>481932796.45</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5097,16 +5097,16 @@
         <v>235</v>
       </c>
       <c r="C236">
-        <v>109169062.87</v>
+        <v>120252893.09</v>
       </c>
       <c r="D236">
-        <v>1781230762.87</v>
+        <v>1676820793.09</v>
       </c>
       <c r="E236">
-        <v>714604705.96</v>
+        <v>497264719.44</v>
       </c>
       <c r="F236">
-        <v>715701427.3200001</v>
+        <v>497951900.57</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5117,16 +5117,16 @@
         <v>236</v>
       </c>
       <c r="C237">
-        <v>109377684.79</v>
+        <v>119444437.1</v>
       </c>
       <c r="D237">
-        <v>1783275384.79</v>
+        <v>1666303737.1</v>
       </c>
       <c r="E237">
-        <v>722192886.4400001</v>
+        <v>491680549.7</v>
       </c>
       <c r="F237">
-        <v>721984264.66</v>
+        <v>492489005.82</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5137,16 +5137,16 @@
         <v>237</v>
       </c>
       <c r="C238">
-        <v>108512016.85</v>
+        <v>119291395.1</v>
       </c>
       <c r="D238">
-        <v>1788431116.85</v>
+        <v>1682505495.1</v>
       </c>
       <c r="E238">
-        <v>730092303.21</v>
+        <v>531111505.8</v>
       </c>
       <c r="F238">
-        <v>730957971.3</v>
+        <v>531264548</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5157,16 +5157,16 @@
         <v>238</v>
       </c>
       <c r="C239">
-        <v>107693271.83</v>
+        <v>119921851.3</v>
       </c>
       <c r="D239">
-        <v>1791675771.83</v>
+        <v>1682536151.3</v>
       </c>
       <c r="E239">
-        <v>737875349.6</v>
+        <v>520256358.52</v>
       </c>
       <c r="F239">
-        <v>738694094.76</v>
+        <v>519625902.47</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5177,16 +5177,16 @@
         <v>239</v>
       </c>
       <c r="C240">
-        <v>108202565.17</v>
+        <v>120794864.23</v>
       </c>
       <c r="D240">
-        <v>1812517365.17</v>
+        <v>1672973864.23</v>
       </c>
       <c r="E240">
-        <v>768077850.79</v>
+        <v>497616319.29</v>
       </c>
       <c r="F240">
-        <v>767568557.6</v>
+        <v>496743306.47</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5197,16 +5197,16 @@
         <v>240</v>
       </c>
       <c r="C241">
-        <v>109526727.93</v>
+        <v>120832841.63</v>
       </c>
       <c r="D241">
-        <v>1807243827.93</v>
+        <v>1683912241.63</v>
       </c>
       <c r="E241">
-        <v>754371145.72</v>
+        <v>509967821.7</v>
       </c>
       <c r="F241">
-        <v>753046983.1799999</v>
+        <v>509929844.41</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5217,16 +5217,16 @@
         <v>241</v>
       </c>
       <c r="C242">
-        <v>110023599.97</v>
+        <v>120073606.98</v>
       </c>
       <c r="D242">
-        <v>1829397199.97</v>
+        <v>1690574406.98</v>
       </c>
       <c r="E242">
-        <v>761748774.53</v>
+        <v>518514323.42</v>
       </c>
       <c r="F242">
-        <v>761251902.65</v>
+        <v>519273558.25</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5237,16 +5237,16 @@
         <v>242</v>
       </c>
       <c r="C243">
-        <v>110985804.95</v>
+        <v>120799414.3</v>
       </c>
       <c r="D243">
-        <v>1824199404.95</v>
+        <v>1675386414.3</v>
       </c>
       <c r="E243">
-        <v>751960882.39</v>
+        <v>503612305.48</v>
       </c>
       <c r="F243">
-        <v>750998677.58</v>
+        <v>502886498.26</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5257,16 +5257,16 @@
         <v>243</v>
       </c>
       <c r="C244">
-        <v>111684119.44</v>
+        <v>120163156.19</v>
       </c>
       <c r="D244">
-        <v>1817860519.44</v>
+        <v>1671546756.19</v>
       </c>
       <c r="E244">
-        <v>747128432.91</v>
+        <v>492581194.61</v>
       </c>
       <c r="F244">
-        <v>746430118.61</v>
+        <v>493217452.86</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5277,16 +5277,16 @@
         <v>244</v>
       </c>
       <c r="C245">
-        <v>110257936.88</v>
+        <v>120898276.33</v>
       </c>
       <c r="D245">
-        <v>1802579536.88</v>
+        <v>1693879076.33</v>
       </c>
       <c r="E245">
-        <v>725152263.62</v>
+        <v>523783862.23</v>
       </c>
       <c r="F245">
-        <v>726578446.34</v>
+        <v>523048742.26</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5297,16 +5297,16 @@
         <v>245</v>
       </c>
       <c r="C246">
-        <v>110277121.28</v>
+        <v>119842228.99</v>
       </c>
       <c r="D246">
-        <v>1801859321.28</v>
+        <v>1714993628.99</v>
       </c>
       <c r="E246">
-        <v>731821915.25</v>
+        <v>536111527.47</v>
       </c>
       <c r="F246">
-        <v>731802731.08</v>
+        <v>537167574.97</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5317,16 +5317,16 @@
         <v>246</v>
       </c>
       <c r="C247">
-        <v>111232540.5</v>
+        <v>118562524.87</v>
       </c>
       <c r="D247">
-        <v>1797201340.5</v>
+        <v>1700645724.87</v>
       </c>
       <c r="E247">
-        <v>715820728.0700001</v>
+        <v>535168902.08</v>
       </c>
       <c r="F247">
-        <v>714865309.03</v>
+        <v>536448606.32</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5337,16 +5337,16 @@
         <v>247</v>
       </c>
       <c r="C248">
-        <v>110626981.89</v>
+        <v>117561007.1</v>
       </c>
       <c r="D248">
-        <v>1802562581.89</v>
+        <v>1713083407.1</v>
       </c>
       <c r="E248">
-        <v>723709994.0599999</v>
+        <v>568225343.23</v>
       </c>
       <c r="F248">
-        <v>724315552.84</v>
+        <v>569226861.1900001</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5357,16 +5357,16 @@
         <v>248</v>
       </c>
       <c r="C249">
-        <v>110776648.97</v>
+        <v>117233831.75</v>
       </c>
       <c r="D249">
-        <v>1816965548.97</v>
+        <v>1729939831.75</v>
       </c>
       <c r="E249">
-        <v>742079967.92</v>
+        <v>587035784.15</v>
       </c>
       <c r="F249">
-        <v>741930301.0700001</v>
+        <v>587362959.59</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5377,16 +5377,16 @@
         <v>249</v>
       </c>
       <c r="C250">
-        <v>111295002.25</v>
+        <v>116788969.72</v>
       </c>
       <c r="D250">
-        <v>1833823102.25</v>
+        <v>1734225269.72</v>
       </c>
       <c r="E250">
-        <v>755518598.78</v>
+        <v>592899673.79</v>
       </c>
       <c r="F250">
-        <v>755000245.62</v>
+        <v>593344535.9400001</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5397,16 +5397,16 @@
         <v>250</v>
       </c>
       <c r="C251">
-        <v>110271878.43</v>
+        <v>118041743.34</v>
       </c>
       <c r="D251">
-        <v>1856792878.43</v>
+        <v>1726405243.34</v>
       </c>
       <c r="E251">
-        <v>776508743.5700001</v>
+        <v>596335708.09</v>
       </c>
       <c r="F251">
-        <v>777531867.5700001</v>
+        <v>595082934.61</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5417,16 +5417,16 @@
         <v>251</v>
       </c>
       <c r="C252">
-        <v>110926690.31</v>
+        <v>117014943.95</v>
       </c>
       <c r="D252">
-        <v>1863032990.31</v>
+        <v>1748209443.95</v>
       </c>
       <c r="E252">
-        <v>788921155.4400001</v>
+        <v>599520137.84</v>
       </c>
       <c r="F252">
-        <v>788266343.74</v>
+        <v>600546937.4</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5437,16 +5437,16 @@
         <v>252</v>
       </c>
       <c r="C253">
-        <v>112246496.04</v>
+        <v>116952941.14</v>
       </c>
       <c r="D253">
-        <v>1860668596.04</v>
+        <v>1728503441.14</v>
       </c>
       <c r="E253">
-        <v>780346653.4299999</v>
+        <v>592198859.52</v>
       </c>
       <c r="F253">
-        <v>779026847.85</v>
+        <v>592260862.42</v>
       </c>
     </row>
   </sheetData>
